--- a/Industrials/Copart.xlsx
+++ b/Industrials/Copart.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAAB534-2996-FB4B-8E70-17DB045154C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E16AB-4259-E542-A466-6B4AF463D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AD$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AD$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AD$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -78,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -570,7 +562,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -684,6 +676,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -906,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -970,18 +969,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,12 +1006,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,6 +1023,25 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2464,13 +2464,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>77.59</v>
+    <v>89.79</v>
     <v>51.104999999999997</v>
-    <v>1.2296</v>
-    <v>0.3</v>
-    <v>3.8900000000000002E-3</v>
-    <v>-0.33</v>
-    <v>-4.2620000000000002E-3</v>
+    <v>1.2262999999999999</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-8.0900000000000004E-4</v>
+    <v>-0.91</v>
+    <v>-1.0525E-2</v>
     <v>USD</v>
     <v>Copart, Inc. (Copart) is a provider of online auctions and vehicle remarketing services. The Company provides vehicle sellers with a full range of services to process and sell vehicles over the Internet through the Company’s Virtual Bidding Third Generation (VB3) Internet auction-style sales technology. The Company sells vehicles principally to licensed vehicle dismantlers, rebuilders, repair licensees, used vehicle dealers, exporters, and directly to the general public. The Company operates through two segments: United States and International. Its service offerings include Copart Access, Copart ProQuote, IntelliSeller and Estimating Services. Through Copart Access, it enables Internet-based service for vehicle sellers to assign vehicles for sale, check sales calendars, view vehicle images and history, Its vehicle sellers consist primarily of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals.</v>
     <v>9500</v>
@@ -2478,25 +2478,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>77.59</v>
+    <v>87.21</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45033.998059791404</v>
+    <v>45070.967886782033</v>
     <v>0</v>
-    <v>76.87</v>
-    <v>36897791350</v>
+    <v>86.34</v>
+    <v>41206187550</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>77.16</v>
-    <v>34.352400000000003</v>
-    <v>77.12</v>
-    <v>77.42</v>
-    <v>77.09</v>
+    <v>86.56</v>
+    <v>36.164400000000001</v>
+    <v>86.53</v>
+    <v>86.46</v>
+    <v>85.55</v>
     <v>476592500</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>1936811</v>
-    <v>2127810</v>
+    <v>2109459</v>
+    <v>2280995</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -3084,10 +3084,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK146" sqref="AK146"/>
+      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4843,15 +4843,15 @@
       </c>
       <c r="AK16" s="30">
         <f>AL101/AD3</f>
-        <v>10.539452718298985</v>
+        <v>11.770099225318138</v>
       </c>
       <c r="AL16" s="30">
         <f>AL101/AD28</f>
-        <v>33.847147908964985</v>
+        <v>37.799333611587606</v>
       </c>
       <c r="AM16" s="31">
         <f>AL101/AD106</f>
-        <v>43.965982531710424</v>
+        <v>49.0997009776761</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -10740,7 +10740,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AD80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -11131,10 +11131,10 @@
       <c r="AD83" s="1">
         <v>-10851000</v>
       </c>
-      <c r="AK83" s="33" t="s">
+      <c r="AK83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AL83" s="34"/>
+      <c r="AL83" s="64"/>
     </row>
     <row r="84" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11227,10 +11227,10 @@
       <c r="AD84" s="1">
         <v>36306000</v>
       </c>
-      <c r="AK84" s="35" t="s">
+      <c r="AK84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="AL84" s="36"/>
+      <c r="AL84" s="66"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11620,10 +11620,10 @@
       <c r="AD88" s="1">
         <v>-337448000</v>
       </c>
-      <c r="AK88" s="37" t="s">
+      <c r="AK88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AL88" s="38">
+      <c r="AL88" s="34">
         <f>AL85/(AL86+AL87)</f>
         <v>0.13968009508424498</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AD89" si="7">(-1*B88)/B3</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="C89" s="15">
@@ -11946,10 +11946,10 @@
       <c r="AD91" s="1">
         <v>-374866000</v>
       </c>
-      <c r="AK91" s="37" t="s">
+      <c r="AK91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AL91" s="38">
+      <c r="AL91" s="34">
         <f>AL89/AL90</f>
         <v>0.1870489218869551</v>
       </c>
@@ -12045,10 +12045,10 @@
       <c r="AD92" s="1">
         <v>374866000</v>
       </c>
-      <c r="AK92" s="39" t="s">
+      <c r="AK92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AL92" s="40">
+      <c r="AL92" s="36">
         <f>AL88*(1-AL91)</f>
         <v>0.11355308388966957</v>
       </c>
@@ -12144,10 +12144,10 @@
       <c r="AD93" s="1">
         <v>4333000</v>
       </c>
-      <c r="AK93" s="35" t="s">
+      <c r="AK93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AL93" s="36"/>
+      <c r="AL93" s="66"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12243,7 +12243,7 @@
       <c r="AK94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AL94" s="41">
+      <c r="AL94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -12338,12 +12338,12 @@
       <c r="AD95" s="1">
         <v>-417289000</v>
       </c>
-      <c r="AK95" s="42" t="s">
+      <c r="AK95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AL95" s="43" cm="1">
+      <c r="AL95" s="39" cm="1">
         <f t="array" ref="AL95">_FV(A1,"Beta")</f>
-        <v>1.2296</v>
+        <v>1.2262999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
       <c r="AK96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AL96" s="41">
+      <c r="AL96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12535,12 +12535,12 @@
       <c r="AD97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK97" s="39" t="s">
+      <c r="AK97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AL97" s="40">
+      <c r="AL97" s="36">
         <f>(AL94)+((AL95)*(AL96-AL94))</f>
-        <v>9.3884280000000014E-2</v>
+        <v>9.3742215000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12634,10 +12634,10 @@
       <c r="AD98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK98" s="35" t="s">
+      <c r="AK98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="AL98" s="36"/>
+      <c r="AL98" s="66"/>
     </row>
     <row r="99" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12829,12 +12829,12 @@
       <c r="AD100" s="10">
         <v>-382693000</v>
       </c>
-      <c r="AK100" s="37" t="s">
+      <c r="AK100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AL100" s="38">
+      <c r="AL100" s="34">
         <f>AL99/AL103</f>
-        <v>3.227494038197342E-3</v>
+        <v>2.891012470458866E-3</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12928,12 +12928,12 @@
       <c r="AD101" s="1">
         <v>-15704000</v>
       </c>
-      <c r="AK101" s="42" t="s">
+      <c r="AK101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AL101" s="44" cm="1">
+      <c r="AL101" s="40" cm="1">
         <f t="array" ref="AL101">_FV(A1,"Market cap",TRUE)</f>
-        <v>36897791350</v>
+        <v>41206187550</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13027,12 +13027,12 @@
       <c r="AD102" s="10">
         <v>335976000</v>
       </c>
-      <c r="AK102" s="37" t="s">
+      <c r="AK102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AL102" s="38">
+      <c r="AL102" s="34">
         <f>AL101/AL103</f>
-        <v>0.99677250596180267</v>
+        <v>0.99710898752954114</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13126,12 +13126,12 @@
       <c r="AD103" s="1">
         <v>1048260000</v>
       </c>
-      <c r="AK103" s="39" t="s">
+      <c r="AK103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AL103" s="45">
+      <c r="AL103" s="41">
         <f>AL99+AL101</f>
-        <v>37017264350</v>
+        <v>41325660550</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13225,10 +13225,10 @@
       <c r="AD104" s="11">
         <v>1384236000</v>
       </c>
-      <c r="AK104" s="35" t="s">
+      <c r="AK104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AL104" s="36"/>
+      <c r="AL104" s="66"/>
     </row>
     <row r="105" spans="1:38" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13256,7 +13256,7 @@
         <v>3.0927835051546282E-2</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AD105" si="8">(H106/G106)-1</f>
         <v>-2.0827200000000001</v>
       </c>
       <c r="I105" s="15">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="AL105" s="26">
         <f>(AL100*AL92)+(AL102*AL97)</f>
-        <v>9.3947760947292402E-2</v>
+        <v>9.3799488469010664E-2</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -13452,213 +13452,302 @@
       <c r="AD106" s="1">
         <v>839235000</v>
       </c>
-      <c r="AE106" s="46">
+      <c r="AE106" s="42">
         <f>AD106*(1+$AL$106)</f>
         <v>910343293.32825589</v>
       </c>
-      <c r="AF106" s="46">
+      <c r="AF106" s="42">
         <f t="shared" ref="AF106:AI106" si="9">AE106*(1+$AL$106)</f>
         <v>987476584.87519574</v>
       </c>
-      <c r="AG106" s="46">
+      <c r="AG106" s="42">
         <f t="shared" si="9"/>
         <v>1071145372.1065311</v>
       </c>
-      <c r="AH106" s="46">
+      <c r="AH106" s="42">
         <f t="shared" si="9"/>
         <v>1161903406.8845789</v>
       </c>
-      <c r="AI106" s="46">
+      <c r="AI106" s="42">
         <f t="shared" si="9"/>
         <v>1260351360.4087391</v>
       </c>
-      <c r="AJ106" s="47" t="s">
+      <c r="AJ106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AK106" s="48" t="s">
+      <c r="AK106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AL106" s="49">
+      <c r="AL106" s="45">
         <f>(SUM(AE4:AI4)/5)</f>
         <v>8.4729894878378426E-2</v>
       </c>
     </row>
     <row r="107" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="47"/>
-      <c r="AH107" s="47"/>
-      <c r="AI107" s="50">
+      <c r="A107" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="60">
+        <f t="shared" ref="B107:AC107" si="10">B106/B3</f>
+        <v>0.10087719298245613</v>
+      </c>
+      <c r="C107" s="60">
+        <f t="shared" si="10"/>
+        <v>-8.0895008605851984E-2</v>
+      </c>
+      <c r="D107" s="60">
+        <f t="shared" si="10"/>
+        <v>2.2842639593908629E-2</v>
+      </c>
+      <c r="E107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.1330166270783848</v>
+      </c>
+      <c r="F107" s="60">
+        <f t="shared" si="10"/>
+        <v>8.493870402802102E-2</v>
+      </c>
+      <c r="G107" s="60">
+        <f t="shared" si="10"/>
+        <v>7.0521861777150918E-2</v>
+      </c>
+      <c r="H107" s="60">
+        <f t="shared" si="10"/>
+        <v>-5.6972579262616799E-2</v>
+      </c>
+      <c r="I107" s="60">
+        <f t="shared" si="10"/>
+        <v>4.3192035587149367E-2</v>
+      </c>
+      <c r="J107" s="60">
+        <f t="shared" si="10"/>
+        <v>-1.2468723910258557E-2</v>
+      </c>
+      <c r="K107" s="60">
+        <f t="shared" si="10"/>
+        <v>2.405884928204256E-2</v>
+      </c>
+      <c r="L107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.12637317260663333</v>
+      </c>
+      <c r="M107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.15255156843742548</v>
+      </c>
+      <c r="N107" s="60">
+        <f t="shared" si="10"/>
+        <v>4.5891658831074725E-2</v>
+      </c>
+      <c r="O107" s="60">
+        <f t="shared" si="10"/>
+        <v>-2.6410786901619462E-2</v>
+      </c>
+      <c r="P107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.10282118320999735</v>
+      </c>
+      <c r="Q107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.16744719963611016</v>
+      </c>
+      <c r="R107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.15987884261313867</v>
+      </c>
+      <c r="S107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.19806568330493921</v>
+      </c>
+      <c r="T107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.18918275551265917</v>
+      </c>
+      <c r="U107" s="60">
+        <f t="shared" si="10"/>
+        <v>6.5999545100947452E-2</v>
+      </c>
+      <c r="V107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.15563877269144788</v>
+      </c>
+      <c r="W107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.16222529162474839</v>
+      </c>
+      <c r="X107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.12501961056376726</v>
+      </c>
+      <c r="Y107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.22091450094994342</v>
+      </c>
+      <c r="Z107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.13687749038458877</v>
+      </c>
+      <c r="AA107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.13357920857295233</v>
+      </c>
+      <c r="AB107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.14776727967163331</v>
+      </c>
+      <c r="AC107" s="60">
+        <f t="shared" si="10"/>
+        <v>0.19606048034715551</v>
+      </c>
+      <c r="AD107" s="60">
+        <f>AD106/AD3</f>
+        <v>0.23971834840032094</v>
+      </c>
+      <c r="AE107" s="43"/>
+      <c r="AF107" s="43"/>
+      <c r="AG107" s="43"/>
+      <c r="AH107" s="43"/>
+      <c r="AI107" s="46">
         <f>AI106*(1+AL107)/(AL108-AL107)</f>
-        <v>18736796186.993351</v>
-      </c>
-      <c r="AJ107" s="51" t="s">
+        <v>18777176591.957508</v>
+      </c>
+      <c r="AJ107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AK107" s="52" t="s">
+      <c r="AK107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AL107" s="53">
+      <c r="AL107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE108" s="50">
-        <f t="shared" ref="AE108:AG108" si="10">AE107+AE106</f>
+      <c r="AE108" s="46">
+        <f t="shared" ref="AE108:AG108" si="11">AE107+AE106</f>
         <v>910343293.32825589</v>
       </c>
-      <c r="AF108" s="50">
-        <f t="shared" si="10"/>
+      <c r="AF108" s="46">
+        <f t="shared" si="11"/>
         <v>987476584.87519574</v>
       </c>
-      <c r="AG108" s="50">
-        <f t="shared" si="10"/>
+      <c r="AG108" s="46">
+        <f t="shared" si="11"/>
         <v>1071145372.1065311</v>
       </c>
-      <c r="AH108" s="50">
+      <c r="AH108" s="46">
         <f>AH107+AH106</f>
         <v>1161903406.8845789</v>
       </c>
-      <c r="AI108" s="50">
+      <c r="AI108" s="46">
         <f>AI107+AI106</f>
-        <v>19997147547.402092</v>
-      </c>
-      <c r="AJ108" s="51" t="s">
+        <v>20037527952.366249</v>
+      </c>
+      <c r="AJ108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AK108" s="54" t="s">
+      <c r="AK108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AL108" s="55">
+      <c r="AL108" s="51">
         <f>AL105</f>
-        <v>9.3947760947292402E-2</v>
+        <v>9.3799488469010664E-2</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE109" s="56" t="s">
+      <c r="AE109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="AF109" s="57"/>
+      <c r="AF109" s="62"/>
     </row>
     <row r="110" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE110" s="58" t="s">
+      <c r="AE110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AF110" s="44">
+      <c r="AF110" s="40">
         <f>NPV(AL108,AE108,AF108,AG108,AH108,AI108)</f>
-        <v>16050768531.637163</v>
+        <v>16086323252.673157</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE111" s="58" t="s">
+      <c r="AE111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AF111" s="44">
+      <c r="AF111" s="40">
         <f>AD40</f>
         <v>1384236000</v>
       </c>
     </row>
     <row r="112" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE112" s="58" t="s">
+      <c r="AE112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AF112" s="44">
+      <c r="AF112" s="40">
         <f>AL99</f>
         <v>119473000</v>
       </c>
     </row>
     <row r="113" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE113" s="58" t="s">
+      <c r="AE113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AF113" s="44">
+      <c r="AF113" s="40">
         <f>AF110+AF111-AF112</f>
-        <v>17315531531.637161</v>
+        <v>17351086252.673157</v>
       </c>
     </row>
     <row r="114" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE114" s="58" t="s">
+      <c r="AE114" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="AF114" s="59" cm="1">
+      <c r="AF114" s="53" cm="1">
         <f t="array" ref="AF114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>476592500</v>
       </c>
     </row>
     <row r="115" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE115" s="60" t="s">
+      <c r="AE115" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="AF115" s="61">
+      <c r="AF115" s="55">
         <f>AF113/AF114</f>
-        <v>36.331942973582592</v>
+        <v>36.406544905077517</v>
       </c>
     </row>
     <row r="116" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE116" s="58" t="s">
+      <c r="AE116" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="AF116" s="62" cm="1">
+      <c r="AF116" s="56" cm="1">
         <f t="array" ref="AF116">_FV(A1,"Price")</f>
-        <v>77.42</v>
+        <v>86.46</v>
       </c>
     </row>
     <row r="117" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE117" s="63" t="s">
+      <c r="AE117" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AF117" s="64">
+      <c r="AF117" s="58">
         <f>AF115/AF116-1</f>
-        <v>-0.5307163139552753</v>
+        <v>-0.57892036889801624</v>
       </c>
     </row>
     <row r="118" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE118" s="63" t="s">
+      <c r="AE118" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AF118" s="65" t="str">
+      <c r="AF118" s="59" t="str">
         <f>IF(AF115&gt;AF116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AE109:AF109"/>
     <mergeCell ref="AK83:AL83"/>
     <mergeCell ref="AK84:AL84"/>
     <mergeCell ref="AK93:AL93"/>
     <mergeCell ref="AK98:AL98"/>
     <mergeCell ref="AK104:AL104"/>
-    <mergeCell ref="AE109:AF109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CPRT" display="ROIC.AI | CPRT" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Industrials/Copart.xlsx
+++ b/Industrials/Copart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E16AB-4259-E542-A466-6B4AF463D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C59190-D4FD-6948-A01D-410B120101AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,27 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -736,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -900,12 +910,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -958,12 +977,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,6 +1038,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,6 +1062,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2466,11 +2492,11 @@
     <v>Powered by Refinitiv</v>
     <v>89.79</v>
     <v>51.104999999999997</v>
-    <v>1.2262999999999999</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-8.0900000000000004E-4</v>
-    <v>-0.91</v>
-    <v>-1.0525E-2</v>
+    <v>1.2277</v>
+    <v>0.72</v>
+    <v>8.1930000000000006E-3</v>
+    <v>0.39</v>
+    <v>4.4019999999999997E-3</v>
     <v>USD</v>
     <v>Copart, Inc. (Copart) is a provider of online auctions and vehicle remarketing services. The Company provides vehicle sellers with a full range of services to process and sell vehicles over the Internet through the Company’s Virtual Bidding Third Generation (VB3) Internet auction-style sales technology. The Company sells vehicles principally to licensed vehicle dismantlers, rebuilders, repair licensees, used vehicle dealers, exporters, and directly to the general public. The Company operates through two segments: United States and International. Its service offerings include Copart Access, Copart ProQuote, IntelliSeller and Estimating Services. Through Copart Access, it enables Internet-based service for vehicle sellers to assign vehicles for sale, check sales calendars, view vehicle images and history, Its vehicle sellers consist primarily of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals.</v>
     <v>9500</v>
@@ -2478,25 +2504,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>87.21</v>
+    <v>88.93</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.967886782033</v>
+    <v>45076.965638193753</v>
     <v>0</v>
-    <v>86.34</v>
-    <v>41206187550</v>
+    <v>87.95</v>
+    <v>42301166280</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>86.56</v>
-    <v>36.164400000000001</v>
-    <v>86.53</v>
-    <v>86.46</v>
-    <v>85.55</v>
-    <v>476592500</v>
+    <v>88.69</v>
+    <v>36.758299999999998</v>
+    <v>87.88</v>
+    <v>88.6</v>
+    <v>88.99</v>
+    <v>477439800</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>2109459</v>
-    <v>2280995</v>
+    <v>1807715</v>
+    <v>2090121</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -3084,10 +3110,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4841,20 +4867,20 @@
         <f>(AD35+AC35+AB35+AA35+Z35)/5</f>
         <v>0.20422971574599397</v>
       </c>
-      <c r="AK16" s="30">
+      <c r="AK16" s="72">
         <f>AL101/AD3</f>
-        <v>11.770099225318138</v>
-      </c>
-      <c r="AL16" s="30">
+        <v>12.082867988166543</v>
+      </c>
+      <c r="AL16" s="72">
         <f>AL101/AD28</f>
-        <v>37.799333611587606</v>
-      </c>
-      <c r="AM16" s="31">
+        <v>38.803781457257394</v>
+      </c>
+      <c r="AM16" s="73">
         <f>AL101/AD106</f>
-        <v>49.0997009776761</v>
+        <v>50.404435325028153</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4946,7 +4972,7 @@
         <v>16688000</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5040,8 +5066,17 @@
       <c r="AJ18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AK18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5132,12 +5167,39 @@
       <c r="AD19" s="10">
         <v>1496247000</v>
       </c>
-      <c r="AJ19" s="32">
+      <c r="AE19" s="61">
+        <v>1639000000</v>
+      </c>
+      <c r="AF19" s="61">
+        <v>1797000000</v>
+      </c>
+      <c r="AG19" s="61">
+        <v>2130000000</v>
+      </c>
+      <c r="AH19" s="61">
+        <v>2339000000</v>
+      </c>
+      <c r="AI19" s="61">
+        <v>2421000000</v>
+      </c>
+      <c r="AJ19" s="30">
         <f>AD40-AD56-AD61</f>
         <v>1264763000</v>
       </c>
+      <c r="AK19" s="72">
+        <f>AL101/AE3</f>
+        <v>11.07940447354636</v>
+      </c>
+      <c r="AL19" s="72">
+        <f>AL101/AE28</f>
+        <v>35.04653378624689</v>
+      </c>
+      <c r="AM19" s="73">
+        <f>AL101/AE105</f>
+        <v>51.088365072463766</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5254,8 +5316,28 @@
         <f t="shared" si="3"/>
         <v>0.18263847667164357</v>
       </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="4">(AE19/AD19)-1</f>
+        <v>9.5407375921221504E-2</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" ref="AF20" si="5">(AF19/AE19)-1</f>
+        <v>9.6400244051250805E-2</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" ref="AG20" si="6">(AG19/AF19)-1</f>
+        <v>0.18530884808013348</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" ref="AH20" si="7">(AH19/AG19)-1</f>
+        <v>9.8122065727699548E-2</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" ref="AI20" si="8">(AI19/AH19)-1</f>
+        <v>3.5057716973065478E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5346,8 +5428,28 @@
       <c r="AD21" s="2">
         <v>0.4274</v>
       </c>
+      <c r="AE21" s="62">
+        <f>AE19/AE3</f>
+        <v>0.42928234677841803</v>
+      </c>
+      <c r="AF21" s="62">
+        <f t="shared" ref="AF21:AI21" si="9">AF19/AF3</f>
+        <v>0.43765221626887479</v>
+      </c>
+      <c r="AG21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.45203735144312396</v>
+      </c>
+      <c r="AH21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.46179664363277395</v>
+      </c>
+      <c r="AI21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.46175853518977683</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5439,7 +5541,7 @@
         <v>1374997000</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5531,7 +5633,7 @@
         <v>0.39279999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5623,7 +5725,7 @@
         <v>-34043000</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5715,7 +5817,7 @@
         <v>1340954000</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5807,7 +5909,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5899,7 +6001,7 @@
         <v>250824000</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5990,8 +6092,23 @@
       <c r="AD28" s="11">
         <v>1090130000</v>
       </c>
+      <c r="AE28" s="63">
+        <v>1207000000</v>
+      </c>
+      <c r="AF28" s="63">
+        <v>1313000000</v>
+      </c>
+      <c r="AG28" s="63">
+        <v>1654000000</v>
+      </c>
+      <c r="AH28" s="63">
+        <v>1820000000</v>
+      </c>
+      <c r="AI28" s="63">
+        <v>1884000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6009,107 +6126,127 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AD29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AD29" si="10">(F28/E28)-1</f>
         <v>0.26666666666666661</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.44736842105263164</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.33768636363636362</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.45043511354407717</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.34448166803326696</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.9099551832052484E-3</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.38443296482833578</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2890130433739837</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-5.061890399153901E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.40631479055566433</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.15105106426674886</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.10086534295108707</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>7.4583814660212688E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.7264998977754535E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9.4629601803155605E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.1497976597719117E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-7.4323010692959324E-3</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.22998875128017149</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.23012243895114737</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.45815579227696412</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>5.9965451376998491E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.41598403319716559</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.18288876157061185</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.33802776654612687</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.16405319836197729</v>
       </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="11">(AE28/AD28)-1</f>
+        <v>0.10720739728289286</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" ref="AF29" si="12">(AF28/AE28)-1</f>
+        <v>8.7821043910522034E-2</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" ref="AG29" si="13">(AG28/AF28)-1</f>
+        <v>0.25971058644325962</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" ref="AH29" si="14">(AH28/AG28)-1</f>
+        <v>0.10036275695284158</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" ref="AI29" si="15">(AI28/AH28)-1</f>
+        <v>3.5164835164835262E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6200,8 +6337,28 @@
       <c r="AD30" s="2">
         <v>0.31140000000000001</v>
       </c>
+      <c r="AE30" s="64">
+        <f>AE28/AE3</f>
+        <v>0.31613410162388683</v>
+      </c>
+      <c r="AF30" s="64">
+        <f t="shared" ref="AF30:AI30" si="16">AF28/AF3</f>
+        <v>0.31977593765221629</v>
+      </c>
+      <c r="AG30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.35101867572156198</v>
+      </c>
+      <c r="AH30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.35932872655478776</v>
+      </c>
+      <c r="AI30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.35933625786763301</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6292,8 +6449,23 @@
       <c r="AD31" s="12">
         <v>2.29</v>
       </c>
+      <c r="AE31" s="65">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF31" s="65">
+        <v>2.75</v>
+      </c>
+      <c r="AG31" s="65">
+        <v>3.46</v>
+      </c>
+      <c r="AH31" s="65">
+        <v>3.81</v>
+      </c>
+      <c r="AI31" s="65">
+        <v>3.95</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6579,111 +6751,111 @@
         <v>0.35294117679754899</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AD35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AD35" si="17">(D34-C34)/C34</f>
         <v>0.3030617091222107</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.107758113192585E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4558140268167652E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.4892748537142094E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.0478405697220305E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5902218138840914E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.8433458134785569E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9361979594744168E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.5917383554545476E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.580559597628068E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-6.3451776649746188E-4</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.7035243475921441E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-3.8489112407040824E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.6633799995548531E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.0435654543524166E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-9.8215860844202432E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.14296520423600606</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.2531576224244454E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1164962513773203E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.4859407147755849E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.0595396614038422E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.9779691682972155E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.0496247136305528E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.8872898208593627E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.473393968883732E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.8466747117189595E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0071663406716884</v>
       </c>
     </row>
@@ -10740,119 +10912,119 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AD80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AD80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2667511795468064E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3231320814771781E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.1790870924028313E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3578459431005065E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.8690043635904915E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.8993733503281939E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.584009479276734E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6448434268937891E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.4392454044631801E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2859868360935818E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1481632571107032E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0574074972467597E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.5198452299730623E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1129928381702986E-2</v>
       </c>
     </row>
@@ -11131,10 +11303,10 @@
       <c r="AD83" s="1">
         <v>-10851000</v>
       </c>
-      <c r="AK83" s="63" t="s">
+      <c r="AK83" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="AL83" s="64"/>
+      <c r="AL83" s="69"/>
     </row>
     <row r="84" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11227,10 +11399,10 @@
       <c r="AD84" s="1">
         <v>36306000</v>
       </c>
-      <c r="AK84" s="65" t="s">
+      <c r="AK84" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="AL84" s="66"/>
+      <c r="AL84" s="71"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11620,10 +11792,10 @@
       <c r="AD88" s="1">
         <v>-337448000</v>
       </c>
-      <c r="AK88" s="33" t="s">
+      <c r="AK88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="AL88" s="34">
+      <c r="AL88" s="32">
         <f>AL85/(AL86+AL87)</f>
         <v>0.13968009508424498</v>
       </c>
@@ -11633,119 +11805,119 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AD89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AD89" si="19">(-1*B88)/B3</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.1703958691910499</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.2758037225042302E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.1757719714964368E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.10683012259194395</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.14598025387870239</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.19481136568016699</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.18091499684508294</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.27156083092804745</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.20355957908383179</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.16105787403726032</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.14494947616662035</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.22265126160913104</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.35111115074552329</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.14444070699039815</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.10619554773228257</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.8126614903497181E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.0447488437894815E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.2104045592307221E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.12449038882400949</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.0056528252523231E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>6.9064174459177771E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.13710996658123425</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.11890901883381066</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.1594455320527553</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.18310032973270249</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.2683970632707996</v>
       </c>
       <c r="AC89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.1719569576503123</v>
       </c>
       <c r="AD89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.6388350379800064E-2</v>
       </c>
       <c r="AK89" s="23" t="s">
@@ -11946,10 +12118,10 @@
       <c r="AD91" s="1">
         <v>-374866000</v>
       </c>
-      <c r="AK91" s="33" t="s">
+      <c r="AK91" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AL91" s="34">
+      <c r="AL91" s="32">
         <f>AL89/AL90</f>
         <v>0.1870489218869551</v>
       </c>
@@ -12045,10 +12217,10 @@
       <c r="AD92" s="1">
         <v>374866000</v>
       </c>
-      <c r="AK92" s="35" t="s">
+      <c r="AK92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AL92" s="36">
+      <c r="AL92" s="34">
         <f>AL88*(1-AL91)</f>
         <v>0.11355308388966957</v>
       </c>
@@ -12144,10 +12316,10 @@
       <c r="AD93" s="1">
         <v>4333000</v>
       </c>
-      <c r="AK93" s="65" t="s">
+      <c r="AK93" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="AL93" s="66"/>
+      <c r="AL93" s="71"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12243,7 +12415,7 @@
       <c r="AK94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AL94" s="37">
+      <c r="AL94" s="35">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -12338,12 +12510,12 @@
       <c r="AD95" s="1">
         <v>-417289000</v>
       </c>
-      <c r="AK95" s="38" t="s">
+      <c r="AK95" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AL95" s="39" cm="1">
+      <c r="AL95" s="37" cm="1">
         <f t="array" ref="AL95">_FV(A1,"Beta")</f>
-        <v>1.2262999999999999</v>
+        <v>1.2277</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12440,7 +12612,7 @@
       <c r="AK96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AL96" s="37">
+      <c r="AL96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12535,12 +12707,12 @@
       <c r="AD97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK97" s="35" t="s">
+      <c r="AK97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="AL97" s="36">
+      <c r="AL97" s="34">
         <f>(AL94)+((AL95)*(AL96-AL94))</f>
-        <v>9.3742215000000004E-2</v>
+        <v>9.3802485000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12634,10 +12806,10 @@
       <c r="AD98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK98" s="65" t="s">
+      <c r="AK98" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="AL98" s="66"/>
+      <c r="AL98" s="71"/>
     </row>
     <row r="99" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12829,12 +13001,12 @@
       <c r="AD100" s="10">
         <v>-382693000</v>
       </c>
-      <c r="AK100" s="33" t="s">
+      <c r="AK100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="AL100" s="34">
+      <c r="AL100" s="32">
         <f>AL99/AL103</f>
-        <v>2.891012470458866E-3</v>
+        <v>2.8163884851289305E-3</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12928,12 +13100,12 @@
       <c r="AD101" s="1">
         <v>-15704000</v>
       </c>
-      <c r="AK101" s="38" t="s">
+      <c r="AK101" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="AL101" s="40" cm="1">
+      <c r="AL101" s="38" cm="1">
         <f t="array" ref="AL101">_FV(A1,"Market cap",TRUE)</f>
-        <v>41206187550</v>
+        <v>42301166280</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13027,12 +13199,12 @@
       <c r="AD102" s="10">
         <v>335976000</v>
       </c>
-      <c r="AK102" s="33" t="s">
+      <c r="AK102" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="AL102" s="34">
+      <c r="AL102" s="32">
         <f>AL101/AL103</f>
-        <v>0.99710898752954114</v>
+        <v>0.99718361151487112</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13126,12 +13298,12 @@
       <c r="AD103" s="1">
         <v>1048260000</v>
       </c>
-      <c r="AK103" s="35" t="s">
+      <c r="AK103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AL103" s="41">
+      <c r="AL103" s="39">
         <f>AL99+AL101</f>
-        <v>41325660550</v>
+        <v>42420639280</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13225,10 +13397,10 @@
       <c r="AD104" s="11">
         <v>1384236000</v>
       </c>
-      <c r="AK104" s="65" t="s">
+      <c r="AK104" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="AL104" s="66"/>
+      <c r="AL104" s="71"/>
     </row>
     <row r="105" spans="1:38" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13256,109 +13428,119 @@
         <v>3.0927835051546282E-2</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AD105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AD105" si="20">(H106/G106)-1</f>
         <v>-2.0827200000000001</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-2.0128195655386434</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-1.3598212657304396</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-3.1183536925338333</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>5.0596152465723927</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.3767648109867936</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.65214460872183899</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-1.6104629591458135</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-6.4496893571042682</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.54186545062516256</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-6.9116831555852132E-3</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.39812409462073206</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.2033896342945827E-2</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.60500683478131556</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.62208771955228</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.6722405071679445E-2</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.14706088004173767</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0171395059937822</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>-0.22733837689133429</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.10359323350555716</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.19485780696062149</v>
       </c>
       <c r="AC105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.61974207840742768</v>
       </c>
       <c r="AD105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.58977637598386035</v>
       </c>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
+      <c r="AE105" s="59">
+        <v>828000000</v>
+      </c>
+      <c r="AF105" s="59">
+        <v>1093000000</v>
+      </c>
+      <c r="AG105" s="59">
+        <v>1404000000</v>
+      </c>
+      <c r="AH105" s="59">
+        <v>1511000000</v>
+      </c>
+      <c r="AI105" s="59">
+        <v>1585000000</v>
+      </c>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AL105" s="26">
         <f>(AL100*AL92)+(AL102*AL97)</f>
-        <v>9.3799488469010664E-2</v>
+        <v>9.3858110359287275E-2</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -13452,33 +13634,33 @@
       <c r="AD106" s="1">
         <v>839235000</v>
       </c>
-      <c r="AE106" s="42">
+      <c r="AE106" s="40">
         <f>AD106*(1+$AL$106)</f>
         <v>910343293.32825589</v>
       </c>
-      <c r="AF106" s="42">
-        <f t="shared" ref="AF106:AI106" si="9">AE106*(1+$AL$106)</f>
+      <c r="AF106" s="40">
+        <f t="shared" ref="AF106:AI106" si="21">AE106*(1+$AL$106)</f>
         <v>987476584.87519574</v>
       </c>
-      <c r="AG106" s="42">
-        <f t="shared" si="9"/>
+      <c r="AG106" s="40">
+        <f t="shared" si="21"/>
         <v>1071145372.1065311</v>
       </c>
-      <c r="AH106" s="42">
-        <f t="shared" si="9"/>
+      <c r="AH106" s="40">
+        <f t="shared" si="21"/>
         <v>1161903406.8845789</v>
       </c>
-      <c r="AI106" s="42">
-        <f t="shared" si="9"/>
+      <c r="AI106" s="40">
+        <f t="shared" si="21"/>
         <v>1260351360.4087391</v>
       </c>
-      <c r="AJ106" s="43" t="s">
+      <c r="AJ106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AK106" s="44" t="s">
+      <c r="AK106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AL106" s="45">
+      <c r="AL106" s="43">
         <f>(SUM(AE4:AI4)/5)</f>
         <v>8.4729894878378426E-2</v>
       </c>
@@ -13487,255 +13669,255 @@
       <c r="A107" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="60">
-        <f t="shared" ref="B107:AC107" si="10">B106/B3</f>
+      <c r="B107" s="58">
+        <f t="shared" ref="B107:AC107" si="22">B106/B3</f>
         <v>0.10087719298245613</v>
       </c>
-      <c r="C107" s="60">
-        <f t="shared" si="10"/>
+      <c r="C107" s="58">
+        <f t="shared" si="22"/>
         <v>-8.0895008605851984E-2</v>
       </c>
-      <c r="D107" s="60">
-        <f t="shared" si="10"/>
+      <c r="D107" s="58">
+        <f t="shared" si="22"/>
         <v>2.2842639593908629E-2</v>
       </c>
-      <c r="E107" s="60">
-        <f t="shared" si="10"/>
+      <c r="E107" s="58">
+        <f t="shared" si="22"/>
         <v>0.1330166270783848</v>
       </c>
-      <c r="F107" s="60">
-        <f t="shared" si="10"/>
+      <c r="F107" s="58">
+        <f t="shared" si="22"/>
         <v>8.493870402802102E-2</v>
       </c>
-      <c r="G107" s="60">
-        <f t="shared" si="10"/>
+      <c r="G107" s="58">
+        <f t="shared" si="22"/>
         <v>7.0521861777150918E-2</v>
       </c>
-      <c r="H107" s="60">
-        <f t="shared" si="10"/>
+      <c r="H107" s="58">
+        <f t="shared" si="22"/>
         <v>-5.6972579262616799E-2</v>
       </c>
-      <c r="I107" s="60">
-        <f t="shared" si="10"/>
+      <c r="I107" s="58">
+        <f t="shared" si="22"/>
         <v>4.3192035587149367E-2</v>
       </c>
-      <c r="J107" s="60">
-        <f t="shared" si="10"/>
+      <c r="J107" s="58">
+        <f t="shared" si="22"/>
         <v>-1.2468723910258557E-2</v>
       </c>
-      <c r="K107" s="60">
-        <f t="shared" si="10"/>
+      <c r="K107" s="58">
+        <f t="shared" si="22"/>
         <v>2.405884928204256E-2</v>
       </c>
-      <c r="L107" s="60">
-        <f t="shared" si="10"/>
+      <c r="L107" s="58">
+        <f t="shared" si="22"/>
         <v>0.12637317260663333</v>
       </c>
-      <c r="M107" s="60">
-        <f t="shared" si="10"/>
+      <c r="M107" s="58">
+        <f t="shared" si="22"/>
         <v>0.15255156843742548</v>
       </c>
-      <c r="N107" s="60">
-        <f t="shared" si="10"/>
+      <c r="N107" s="58">
+        <f t="shared" si="22"/>
         <v>4.5891658831074725E-2</v>
       </c>
-      <c r="O107" s="60">
-        <f t="shared" si="10"/>
+      <c r="O107" s="58">
+        <f t="shared" si="22"/>
         <v>-2.6410786901619462E-2</v>
       </c>
-      <c r="P107" s="60">
-        <f t="shared" si="10"/>
+      <c r="P107" s="58">
+        <f t="shared" si="22"/>
         <v>0.10282118320999735</v>
       </c>
-      <c r="Q107" s="60">
-        <f t="shared" si="10"/>
+      <c r="Q107" s="58">
+        <f t="shared" si="22"/>
         <v>0.16744719963611016</v>
       </c>
-      <c r="R107" s="60">
-        <f t="shared" si="10"/>
+      <c r="R107" s="58">
+        <f t="shared" si="22"/>
         <v>0.15987884261313867</v>
       </c>
-      <c r="S107" s="60">
-        <f t="shared" si="10"/>
+      <c r="S107" s="58">
+        <f t="shared" si="22"/>
         <v>0.19806568330493921</v>
       </c>
-      <c r="T107" s="60">
-        <f t="shared" si="10"/>
+      <c r="T107" s="58">
+        <f t="shared" si="22"/>
         <v>0.18918275551265917</v>
       </c>
-      <c r="U107" s="60">
-        <f t="shared" si="10"/>
+      <c r="U107" s="58">
+        <f t="shared" si="22"/>
         <v>6.5999545100947452E-2</v>
       </c>
-      <c r="V107" s="60">
-        <f t="shared" si="10"/>
+      <c r="V107" s="58">
+        <f t="shared" si="22"/>
         <v>0.15563877269144788</v>
       </c>
-      <c r="W107" s="60">
-        <f t="shared" si="10"/>
+      <c r="W107" s="58">
+        <f t="shared" si="22"/>
         <v>0.16222529162474839</v>
       </c>
-      <c r="X107" s="60">
-        <f t="shared" si="10"/>
+      <c r="X107" s="58">
+        <f t="shared" si="22"/>
         <v>0.12501961056376726</v>
       </c>
-      <c r="Y107" s="60">
-        <f t="shared" si="10"/>
+      <c r="Y107" s="58">
+        <f t="shared" si="22"/>
         <v>0.22091450094994342</v>
       </c>
-      <c r="Z107" s="60">
-        <f t="shared" si="10"/>
+      <c r="Z107" s="58">
+        <f t="shared" si="22"/>
         <v>0.13687749038458877</v>
       </c>
-      <c r="AA107" s="60">
-        <f t="shared" si="10"/>
+      <c r="AA107" s="58">
+        <f t="shared" si="22"/>
         <v>0.13357920857295233</v>
       </c>
-      <c r="AB107" s="60">
-        <f t="shared" si="10"/>
+      <c r="AB107" s="58">
+        <f t="shared" si="22"/>
         <v>0.14776727967163331</v>
       </c>
-      <c r="AC107" s="60">
-        <f t="shared" si="10"/>
+      <c r="AC107" s="58">
+        <f t="shared" si="22"/>
         <v>0.19606048034715551</v>
       </c>
-      <c r="AD107" s="60">
+      <c r="AD107" s="58">
         <f>AD106/AD3</f>
         <v>0.23971834840032094</v>
       </c>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="46">
-        <f>AI106*(1+AL107)/(AL108-AL107)</f>
-        <v>18777176591.957508</v>
-      </c>
-      <c r="AJ107" s="47" t="s">
+      <c r="AE107" s="41"/>
+      <c r="AF107" s="41"/>
+      <c r="AG107" s="41"/>
+      <c r="AH107" s="41"/>
+      <c r="AI107" s="60">
+        <f>AI105*(1+AL107)/(AL108-AL107)</f>
+        <v>23593807490.839424</v>
+      </c>
+      <c r="AJ107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AK107" s="48" t="s">
+      <c r="AK107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="AL107" s="49">
+      <c r="AL107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE108" s="46">
-        <f t="shared" ref="AE108:AG108" si="11">AE107+AE106</f>
+      <c r="AE108" s="44">
+        <f t="shared" ref="AE108:AG108" si="23">AE107+AE106</f>
         <v>910343293.32825589</v>
       </c>
-      <c r="AF108" s="46">
-        <f t="shared" si="11"/>
+      <c r="AF108" s="44">
+        <f t="shared" si="23"/>
         <v>987476584.87519574</v>
       </c>
-      <c r="AG108" s="46">
-        <f t="shared" si="11"/>
+      <c r="AG108" s="44">
+        <f t="shared" si="23"/>
         <v>1071145372.1065311</v>
       </c>
-      <c r="AH108" s="46">
+      <c r="AH108" s="44">
         <f>AH107+AH106</f>
         <v>1161903406.8845789</v>
       </c>
-      <c r="AI108" s="46">
-        <f>AI107+AI106</f>
-        <v>20037527952.366249</v>
-      </c>
-      <c r="AJ108" s="47" t="s">
+      <c r="AI108" s="60">
+        <f>AI107+AI105</f>
+        <v>25178807490.839424</v>
+      </c>
+      <c r="AJ108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AK108" s="50" t="s">
+      <c r="AK108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AL108" s="51">
+      <c r="AL108" s="49">
         <f>AL105</f>
-        <v>9.3799488469010664E-2</v>
+        <v>9.3858110359287275E-2</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE109" s="61" t="s">
+      <c r="AE109" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AF109" s="62"/>
+      <c r="AF109" s="67"/>
     </row>
     <row r="110" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE110" s="52" t="s">
+      <c r="AE110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="AF110" s="40">
+      <c r="AF110" s="38">
         <f>NPV(AL108,AE108,AF108,AG108,AH108,AI108)</f>
-        <v>16086323252.673157</v>
+        <v>19365420580.70892</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE111" s="52" t="s">
+      <c r="AE111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="AF111" s="40">
+      <c r="AF111" s="38">
         <f>AD40</f>
         <v>1384236000</v>
       </c>
     </row>
     <row r="112" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE112" s="52" t="s">
+      <c r="AE112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="AF112" s="40">
+      <c r="AF112" s="38">
         <f>AL99</f>
         <v>119473000</v>
       </c>
     </row>
     <row r="113" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE113" s="52" t="s">
+      <c r="AE113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="AF113" s="40">
+      <c r="AF113" s="38">
         <f>AF110+AF111-AF112</f>
-        <v>17351086252.673157</v>
+        <v>20630183580.70892</v>
       </c>
     </row>
     <row r="114" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE114" s="52" t="s">
+      <c r="AE114" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AF114" s="53" cm="1">
+      <c r="AF114" s="51" cm="1">
         <f t="array" ref="AF114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>476592500</v>
+        <v>477439800</v>
       </c>
     </row>
     <row r="115" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE115" s="54" t="s">
+      <c r="AE115" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AF115" s="55">
+      <c r="AF115" s="53">
         <f>AF113/AF114</f>
-        <v>36.406544905077517</v>
+        <v>43.210020573711951</v>
       </c>
     </row>
     <row r="116" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE116" s="52" t="s">
+      <c r="AE116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AF116" s="56" cm="1">
+      <c r="AF116" s="54" cm="1">
         <f t="array" ref="AF116">_FV(A1,"Price")</f>
-        <v>86.46</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="117" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE117" s="57" t="s">
+      <c r="AE117" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AF117" s="58">
+      <c r="AF117" s="56">
         <f>AF115/AF116-1</f>
-        <v>-0.57892036889801624</v>
+        <v>-0.51230225086103887</v>
       </c>
     </row>
     <row r="118" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE118" s="57" t="s">
+      <c r="AE118" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="AF118" s="59" t="str">
+      <c r="AF118" s="57" t="str">
         <f>IF(AF115&gt;AF116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Industrials/Copart.xlsx
+++ b/Industrials/Copart.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C59190-D4FD-6948-A01D-410B120101AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900ACF8-F578-E248-9284-A8BF2D64AD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Buy/Sell</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Forward P/S</t>
   </si>
   <si>
@@ -559,20 +553,42 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -689,13 +705,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -746,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -852,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -924,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -966,108 +922,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1119,7 +1064,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CPRT</a:t>
+              <a:t>Copart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1166,9 +1111,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.38114187588581E-2"/>
-          <c:y val="0.12780497539439997"/>
+          <c:y val="0.15823481180715263"/>
           <c:w val="0.85663522826232263"/>
-          <c:h val="0.72997470820176891"/>
+          <c:h val="0.65085713847579685"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1478,11 +1423,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1522,7 +1467,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AD$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AD$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2336,13 +2281,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2368,6 +2313,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,13 +2487,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>89.79</v>
-    <v>51.104999999999997</v>
-    <v>1.2277</v>
-    <v>0.72</v>
-    <v>8.1930000000000006E-3</v>
-    <v>0.39</v>
-    <v>4.4019999999999997E-3</v>
+    <v>91.58</v>
+    <v>52.284999999999997</v>
+    <v>1.2188000000000001</v>
+    <v>-0.83</v>
+    <v>-9.332E-3</v>
     <v>USD</v>
     <v>Copart, Inc. (Copart) is a provider of online auctions and vehicle remarketing services. The Company provides vehicle sellers with a full range of services to process and sell vehicles over the Internet through the Company’s Virtual Bidding Third Generation (VB3) Internet auction-style sales technology. The Company sells vehicles principally to licensed vehicle dismantlers, rebuilders, repair licensees, used vehicle dealers, exporters, and directly to the general public. The Company operates through two segments: United States and International. Its service offerings include Copart Access, Copart ProQuote, IntelliSeller and Estimating Services. Through Copart Access, it enables Internet-based service for vehicle sellers to assign vehicles for sale, check sales calendars, view vehicle images and history, Its vehicle sellers consist primarily of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals.</v>
     <v>9500</v>
@@ -2504,25 +2499,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>88.93</v>
+    <v>89.06</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45076.965638193753</v>
+    <v>45114.984387673438</v>
     <v>0</v>
-    <v>87.95</v>
-    <v>42301166280</v>
+    <v>87.73</v>
+    <v>42067220000</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>88.69</v>
-    <v>36.758299999999998</v>
-    <v>87.88</v>
-    <v>88.6</v>
-    <v>88.99</v>
+    <v>88.46</v>
+    <v>36.854500000000002</v>
+    <v>88.94</v>
+    <v>88.11</v>
     <v>477439800</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>1807715</v>
-    <v>2090121</v>
+    <v>188</v>
+    <v>2323891</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2554,8 +2548,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2576,7 +2568,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2593,7 +2584,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2604,16 +2595,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2679,19 +2667,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2736,9 +2718,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2746,9 +2725,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3110,10 +3086,10 @@
   <dimension ref="A1:AM118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="AM120" sqref="AM120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3214,19 +3190,19 @@
       <c r="AD1" s="8">
         <v>2022</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2023</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2024</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2025</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="23">
         <v>2026</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3235,100 +3211,100 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9"/>
       <c r="AI2" s="9"/>
@@ -3424,37 +3400,37 @@
       <c r="AD3" s="1">
         <v>3500921000</v>
       </c>
-      <c r="AE3" s="28">
-        <v>3818000000</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>4106000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>4712000000</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>5065000000</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>5243000000</v>
+      <c r="AE3" s="24">
+        <v>3836000000</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>4138000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>4580000000</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>5025000000</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>5396000000</v>
       </c>
       <c r="AJ3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AL3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AM3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3474,120 +3450,120 @@
         <v>-9.5803642121931931E-2</v>
       </c>
       <c r="G4" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G4" si="1">(G3/F3)-1</f>
         <v>0.2416812609457093</v>
       </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4" si="2">(H3/G3)-1</f>
         <v>0.34021368124118467</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
+      <c r="I4" s="15">
+        <f t="shared" ref="I4" si="3">(I3/H3)-1</f>
         <v>0.33596257254306017</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4" si="4">(J3/I3)-1</f>
         <v>0.2464317139667902</v>
       </c>
-      <c r="K4" s="16">
-        <f t="shared" si="0"/>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4" si="5">(K3/J3)-1</f>
         <v>9.7856635903023514E-2</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
+      <c r="L4" s="15">
+        <f t="shared" ref="L4" si="6">(L3/K3)-1</f>
         <v>0.15362593909270861</v>
       </c>
-      <c r="M4" s="16">
-        <f t="shared" si="0"/>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4" si="7">(M3/L3)-1</f>
         <v>0.14050703561884181</v>
       </c>
-      <c r="N4" s="16">
-        <f t="shared" si="0"/>
+      <c r="N4" s="15">
+        <f t="shared" ref="N4" si="8">(N3/M3)-1</f>
         <v>0.15632964422208162</v>
       </c>
-      <c r="O4" s="16">
-        <f t="shared" si="0"/>
+      <c r="O4" s="15">
+        <f t="shared" ref="O4" si="9">(O3/N3)-1</f>
         <v>6.0746806010923748E-2</v>
       </c>
-      <c r="P4" s="16">
-        <f t="shared" si="0"/>
+      <c r="P4" s="15">
+        <f t="shared" ref="P4" si="10">(P3/O3)-1</f>
         <v>0.39981451095098808</v>
       </c>
-      <c r="Q4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="15">
+        <f t="shared" ref="Q4" si="11">(Q3/P3)-1</f>
         <v>-5.3215399669744978E-2</v>
       </c>
-      <c r="R4" s="16">
-        <f t="shared" si="0"/>
+      <c r="R4" s="15">
+        <f t="shared" ref="R4" si="12">(R3/Q3)-1</f>
         <v>4.0099208431909172E-2</v>
       </c>
-      <c r="S4" s="16">
-        <f t="shared" si="0"/>
+      <c r="S4" s="15">
+        <f t="shared" ref="S4" si="13">(S3/R3)-1</f>
         <v>0.1285673436592274</v>
       </c>
-      <c r="T4" s="16">
-        <f t="shared" si="0"/>
+      <c r="T4" s="15">
+        <f t="shared" ref="T4" si="14">(T3/S3)-1</f>
         <v>5.955315358281954E-2</v>
       </c>
-      <c r="U4" s="16">
-        <f t="shared" si="0"/>
+      <c r="U4" s="15">
+        <f t="shared" ref="U4" si="15">(U3/T3)-1</f>
         <v>0.13221834014830258</v>
       </c>
-      <c r="V4" s="16">
-        <f t="shared" si="0"/>
+      <c r="V4" s="15">
+        <f t="shared" ref="V4" si="16">(V3/U3)-1</f>
         <v>0.11191185661887681</v>
       </c>
-      <c r="W4" s="16">
-        <f t="shared" si="0"/>
+      <c r="W4" s="15">
+        <f t="shared" ref="W4" si="17">(W3/V3)-1</f>
         <v>-1.4963613751397764E-2</v>
       </c>
-      <c r="X4" s="16">
-        <f t="shared" si="0"/>
+      <c r="X4" s="15">
+        <f t="shared" ref="X4" si="18">(X3/W3)-1</f>
         <v>0.10677274428726125</v>
       </c>
-      <c r="Y4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Y4" s="15">
+        <f t="shared" ref="Y4" si="19">(Y3/X3)-1</f>
         <v>0.14153663253311732</v>
       </c>
-      <c r="Z4" s="16">
-        <f t="shared" si="0"/>
+      <c r="Z4" s="15">
+        <f t="shared" ref="Z4" si="20">(Z3/Y3)-1</f>
         <v>0.24704329683883963</v>
       </c>
-      <c r="AA4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AA4" s="15">
+        <f t="shared" ref="AA4" si="21">(AA3/Z3)-1</f>
         <v>0.13084269491802325</v>
       </c>
-      <c r="AB4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="15">
+        <f t="shared" ref="AB4" si="22">(AB3/AA3)-1</f>
         <v>8.0131951848153582E-2</v>
       </c>
-      <c r="AC4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AC4" s="15">
+        <f t="shared" ref="AC4" si="23">(AC3/AB3)-1</f>
         <v>0.22077065338280177</v>
       </c>
-      <c r="AD4" s="16">
-        <f t="shared" si="0"/>
+      <c r="AD4" s="15">
+        <f t="shared" ref="AD4" si="24">(AD3/AC3)-1</f>
         <v>0.30024389872501911</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>9.0570167107455468E-2</v>
+        <v>9.57116713002093E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>7.5432163436354172E-2</v>
+        <v>7.87278415015642E-2</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14758889430102284</v>
+        <v>0.10681488641855963</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="0"/>
-        <v>7.4915110356536418E-2</v>
+        <v>9.7161572052401723E-2</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>3.5143139190523254E-2</v>
+        <v>7.3830845771144293E-2</v>
       </c>
       <c r="AJ4" s="17">
         <f>(AD4+AC4+AB4)/3</f>
@@ -3602,7 +3578,7 @@
         <v>0.228323242159572</v>
       </c>
       <c r="AM4" s="17">
-        <f>(AD105+AC105+AB105)/3</f>
+        <f>(AD106+AC106+AB106)/3</f>
         <v>0.46812542045063649</v>
       </c>
     </row>
@@ -3790,16 +3766,16 @@
         <v>1606221000</v>
       </c>
       <c r="AJ6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AL6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AM6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AM6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -3906,7 +3882,7 @@
         <v>0.31140000000000001</v>
       </c>
       <c r="AM7" s="20">
-        <f>AD106/AD3</f>
+        <f>AD107/AD3</f>
         <v>0.23971834840032094</v>
       </c>
     </row>
@@ -4004,135 +3980,135 @@
     </row>
     <row r="9" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AD9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AD9" si="25">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AC9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AJ9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AK9" s="19" t="s">
+      <c r="AL9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AL9" s="19" t="s">
+      <c r="AM9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AM9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4140,10 +4116,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1">
         <v>10900000</v>
@@ -4248,91 +4224,91 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -4427,136 +4403,136 @@
         <v>231224000</v>
       </c>
       <c r="AJ12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AK12" s="19" t="s">
+      <c r="AL12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AL12" s="19" t="s">
+      <c r="AM12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AM12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>0.10526315789473684</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AD13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AD13" si="26">C12/C3</f>
         <v>9.8106712564543896E-2</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>9.2216582064297795E-2</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.3927157561361834E-2</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>9.8949211908931703E-2</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.5331452750352615E-2</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.2349034925382397E-2</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>7.6291487553241694E-2</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>7.3487671896043619E-2</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.2618858676927351E-2</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>9.0983374846524287E-2</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.10277372454392915</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.1115952256177505</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.11349967896126133</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.10746284630909425</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.11699247189408436</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.14093279801883607</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.12336542672594658</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.12388348295969123</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.13181560150842997</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.1414151745310871</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.12126127431006065</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.10888573367947785</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>0.10453452082589482</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>9.7962280451571279E-2</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.9065048872233848E-2</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>8.6917155237413418E-2</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>7.6755489578315558E-2</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="26"/>
         <v>6.6046620303628678E-2</v>
       </c>
       <c r="AJ13" s="17">
@@ -4614,58 +4590,58 @@
         <v>30808300</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -4760,16 +4736,16 @@
         <v>231224000</v>
       </c>
       <c r="AJ15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AK15" s="19" t="s">
+      <c r="AL15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AL15" s="19" t="s">
+      <c r="AM15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AM15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4863,21 +4839,21 @@
       <c r="AD16" s="1">
         <v>2125924000</v>
       </c>
-      <c r="AJ16" s="29">
-        <f>(AD35+AC35+AB35+AA35+Z35)/5</f>
-        <v>0.20422971574599397</v>
-      </c>
-      <c r="AK16" s="72">
+      <c r="AJ16" s="25">
+        <f>SUM(Y35:AC35)/5</f>
+        <v>-3.159490724938153E-3</v>
+      </c>
+      <c r="AK16" s="37">
         <f>AL101/AD3</f>
-        <v>12.082867988166543</v>
-      </c>
-      <c r="AL16" s="72">
+        <v>12.016043778194367</v>
+      </c>
+      <c r="AL16" s="37">
         <f>AL101/AD28</f>
-        <v>38.803781457257394</v>
-      </c>
-      <c r="AM16" s="73">
-        <f>AL101/AD106</f>
-        <v>50.404435325028153</v>
+        <v>38.589177437553317</v>
+      </c>
+      <c r="AM16" s="38">
+        <f>AL101/AD107</f>
+        <v>50.125673976895627</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -4885,49 +4861,49 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1">
         <v>274000</v>
@@ -5064,16 +5040,16 @@
         <v>138605000</v>
       </c>
       <c r="AJ18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK18" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AL18" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AM18" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5167,41 +5143,41 @@
       <c r="AD19" s="10">
         <v>1496247000</v>
       </c>
-      <c r="AE19" s="61">
+      <c r="AE19" s="32">
         <v>1639000000</v>
       </c>
-      <c r="AF19" s="61">
-        <v>1797000000</v>
-      </c>
-      <c r="AG19" s="61">
-        <v>2130000000</v>
-      </c>
-      <c r="AH19" s="61">
-        <v>2339000000</v>
-      </c>
-      <c r="AI19" s="61">
-        <v>2421000000</v>
-      </c>
-      <c r="AJ19" s="30">
+      <c r="AF19" s="32">
+        <v>1800000000</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>2005000000</v>
+      </c>
+      <c r="AH19" s="32">
+        <v>2102000000</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>2313000000</v>
+      </c>
+      <c r="AJ19" s="26">
         <f>AD40-AD56-AD61</f>
         <v>1264763000</v>
       </c>
-      <c r="AK19" s="72">
+      <c r="AK19" s="37">
         <f>AL101/AE3</f>
-        <v>11.07940447354636</v>
-      </c>
-      <c r="AL19" s="72">
+        <v>10.966428571428571</v>
+      </c>
+      <c r="AL19" s="37">
         <f>AL101/AE28</f>
-        <v>35.04653378624689</v>
-      </c>
-      <c r="AM19" s="73">
+        <v>35.085254378648877</v>
+      </c>
+      <c r="AM19" s="38">
         <f>AL101/AE105</f>
-        <v>51.088365072463766</v>
+        <v>48.618874481223628</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5217,127 +5193,127 @@
         <v>0.11570247933884303</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AD20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AD20" si="27">(F19/E19)-1</f>
         <v>0.21111111111111103</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.37614678899082565</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.32117777777777778</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.43632280961431724</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.28775073571001131</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>8.8630283233514406E-2</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.34576872346237342</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.21886498726294934</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-3.1064599088432288E-2</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.33766063122487067</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.14908647990255797</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-7.3642350591887951E-2</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>4.4426890892782733E-2</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.10848444794718559</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>7.6247652630807128E-2</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>1.8672014788306823E-2</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>-3.2972050240354545E-2</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.20014494976377994</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.17547978741264347</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.11121390536202291</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.26951232145118031</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.22411711462587958</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.14224381091106597</v>
       </c>
       <c r="AC20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.36727704614373735</v>
       </c>
       <c r="AD20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="27"/>
         <v>0.18263847667164357</v>
       </c>
       <c r="AE20" s="16">
-        <f t="shared" ref="AE20" si="4">(AE19/AD19)-1</f>
+        <f t="shared" ref="AE20" si="28">(AE19/AD19)-1</f>
         <v>9.5407375921221504E-2</v>
       </c>
       <c r="AF20" s="16">
-        <f t="shared" ref="AF20" si="5">(AF19/AE19)-1</f>
-        <v>9.6400244051250805E-2</v>
+        <f t="shared" ref="AF20" si="29">(AF19/AE19)-1</f>
+        <v>9.8230628431970723E-2</v>
       </c>
       <c r="AG20" s="16">
-        <f t="shared" ref="AG20" si="6">(AG19/AF19)-1</f>
-        <v>0.18530884808013348</v>
+        <f t="shared" ref="AG20" si="30">(AG19/AF19)-1</f>
+        <v>0.11388888888888893</v>
       </c>
       <c r="AH20" s="16">
-        <f t="shared" ref="AH20" si="7">(AH19/AG19)-1</f>
-        <v>9.8122065727699548E-2</v>
+        <f t="shared" ref="AH20" si="31">(AH19/AG19)-1</f>
+        <v>4.8379052369077247E-2</v>
       </c>
       <c r="AI20" s="16">
-        <f t="shared" ref="AI20" si="8">(AI19/AH19)-1</f>
-        <v>3.5057716973065478E-2</v>
+        <f t="shared" ref="AI20" si="32">(AI19/AH19)-1</f>
+        <v>0.10038058991436727</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5428,25 +5404,31 @@
       <c r="AD21" s="2">
         <v>0.4274</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="33">
         <f>AE19/AE3</f>
-        <v>0.42928234677841803</v>
-      </c>
-      <c r="AF21" s="62">
-        <f t="shared" ref="AF21:AI21" si="9">AF19/AF3</f>
-        <v>0.43765221626887479</v>
-      </c>
-      <c r="AG21" s="62">
-        <f t="shared" si="9"/>
-        <v>0.45203735144312396</v>
-      </c>
-      <c r="AH21" s="62">
-        <f t="shared" si="9"/>
-        <v>0.46179664363277395</v>
-      </c>
-      <c r="AI21" s="62">
-        <f t="shared" si="9"/>
-        <v>0.46175853518977683</v>
+        <v>0.42726798748696559</v>
+      </c>
+      <c r="AF21" s="33">
+        <f t="shared" ref="AF21:AI21" si="33">AF19/AF3</f>
+        <v>0.43499275012083133</v>
+      </c>
+      <c r="AG21" s="33">
+        <f t="shared" si="33"/>
+        <v>0.43777292576419213</v>
+      </c>
+      <c r="AH21" s="33">
+        <f t="shared" si="33"/>
+        <v>0.41830845771144276</v>
+      </c>
+      <c r="AI21" s="33">
+        <f t="shared" si="33"/>
+        <v>0.42865085248332097</v>
+      </c>
+      <c r="AL21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM21" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5540,6 +5522,14 @@
       <c r="AD22" s="10">
         <v>1374997000</v>
       </c>
+      <c r="AL22" s="39">
+        <f>(-1*AD98)/AL101</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="40">
+        <f>AD107/AL101</f>
+        <v>1.9949856444043606E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -6092,25 +6082,25 @@
       <c r="AD28" s="11">
         <v>1090130000</v>
       </c>
-      <c r="AE28" s="63">
-        <v>1207000000</v>
-      </c>
-      <c r="AF28" s="63">
-        <v>1313000000</v>
-      </c>
-      <c r="AG28" s="63">
-        <v>1654000000</v>
-      </c>
-      <c r="AH28" s="63">
-        <v>1820000000</v>
-      </c>
-      <c r="AI28" s="63">
-        <v>1884000000</v>
+      <c r="AE28" s="34">
+        <v>1199000000</v>
+      </c>
+      <c r="AF28" s="34">
+        <v>1317000000</v>
+      </c>
+      <c r="AG28" s="34">
+        <v>1524000000</v>
+      </c>
+      <c r="AH28" s="34">
+        <v>1562000000</v>
+      </c>
+      <c r="AI28" s="34">
+        <v>1722000000</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6126,124 +6116,124 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AD29" si="10">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AD29" si="34">(F28/E28)-1</f>
         <v>0.26666666666666661</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.44736842105263164</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.33768636363636362</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.45043511354407717</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.34448166803326696</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>-2.9099551832052484E-3</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.38443296482833578</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.2890130433739837</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>-5.061890399153901E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.40631479055566433</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.15105106426674886</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>-0.10086534295108707</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>7.4583814660212688E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>9.7264998977754535E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>9.4629601803155605E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>-1.1497976597719117E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>-7.4323010692959324E-3</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.22998875128017149</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.23012243895114737</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.45815579227696412</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>5.9965451376998491E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.41598403319716559</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.18288876157061185</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.33802776654612687</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0.16405319836197729</v>
       </c>
       <c r="AE29" s="16">
-        <f t="shared" ref="AE29" si="11">(AE28/AD28)-1</f>
-        <v>0.10720739728289286</v>
+        <f t="shared" ref="AE29" si="35">(AE28/AD28)-1</f>
+        <v>9.9868822984414685E-2</v>
       </c>
       <c r="AF29" s="16">
-        <f t="shared" ref="AF29" si="12">(AF28/AE28)-1</f>
-        <v>8.7821043910522034E-2</v>
+        <f t="shared" ref="AF29" si="36">(AF28/AE28)-1</f>
+        <v>9.8415346121768055E-2</v>
       </c>
       <c r="AG29" s="16">
-        <f t="shared" ref="AG29" si="13">(AG28/AF28)-1</f>
-        <v>0.25971058644325962</v>
+        <f t="shared" ref="AG29" si="37">(AG28/AF28)-1</f>
+        <v>0.15717539863325736</v>
       </c>
       <c r="AH29" s="16">
-        <f t="shared" ref="AH29" si="14">(AH28/AG28)-1</f>
-        <v>0.10036275695284158</v>
+        <f t="shared" ref="AH29" si="38">(AH28/AG28)-1</f>
+        <v>2.4934383202099841E-2</v>
       </c>
       <c r="AI29" s="16">
-        <f t="shared" ref="AI29" si="15">(AI28/AH28)-1</f>
-        <v>3.5164835164835262E-2</v>
+        <f t="shared" ref="AI29" si="39">(AI28/AH28)-1</f>
+        <v>0.10243277848911658</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6337,25 +6327,25 @@
       <c r="AD30" s="2">
         <v>0.31140000000000001</v>
       </c>
-      <c r="AE30" s="64">
+      <c r="AE30" s="35">
         <f>AE28/AE3</f>
-        <v>0.31613410162388683</v>
-      </c>
-      <c r="AF30" s="64">
-        <f t="shared" ref="AF30:AI30" si="16">AF28/AF3</f>
-        <v>0.31977593765221629</v>
-      </c>
-      <c r="AG30" s="64">
-        <f t="shared" si="16"/>
-        <v>0.35101867572156198</v>
-      </c>
-      <c r="AH30" s="64">
-        <f t="shared" si="16"/>
-        <v>0.35932872655478776</v>
-      </c>
-      <c r="AI30" s="64">
-        <f t="shared" si="16"/>
-        <v>0.35933625786763301</v>
+        <v>0.31256517205422313</v>
+      </c>
+      <c r="AF30" s="35">
+        <f t="shared" ref="AF30:AI30" si="40">AF28/AF3</f>
+        <v>0.31826969550507489</v>
+      </c>
+      <c r="AG30" s="35">
+        <f t="shared" si="40"/>
+        <v>0.33275109170305678</v>
+      </c>
+      <c r="AH30" s="35">
+        <f t="shared" si="40"/>
+        <v>0.31084577114427858</v>
+      </c>
+      <c r="AI30" s="35">
+        <f t="shared" si="40"/>
+        <v>0.31912527798369161</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6363,7 +6353,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12">
         <v>0.03</v>
@@ -6449,20 +6439,20 @@
       <c r="AD31" s="12">
         <v>2.29</v>
       </c>
-      <c r="AE31" s="65">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AF31" s="65">
-        <v>2.75</v>
-      </c>
-      <c r="AG31" s="65">
-        <v>3.46</v>
-      </c>
-      <c r="AH31" s="65">
-        <v>3.81</v>
-      </c>
-      <c r="AI31" s="65">
-        <v>3.95</v>
+      <c r="AE31" s="36">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AF31" s="36">
+        <v>2.76</v>
+      </c>
+      <c r="AG31" s="36">
+        <v>3.19</v>
+      </c>
+      <c r="AH31" s="36">
+        <v>3.27</v>
+      </c>
+      <c r="AI31" s="36">
+        <v>3.61</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -6470,7 +6460,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="12">
         <v>0.03</v>
@@ -6743,7 +6733,7 @@
     </row>
     <row r="35" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6751,111 +6741,111 @@
         <v>0.35294117679754899</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AD35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AD35" si="41">(D34-C34)/C34</f>
         <v>0.3030617091222107</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>3.107758113192585E-3</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.4558140268167652E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>2.4892748537142094E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>7.0478405697220305E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.5902218138840914E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>7.8433458134785569E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.9361979594744168E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-1.5917383554545476E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.580559597628068E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-6.3451776649746188E-4</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>5.7035243475921441E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-3.8489112407040824E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-5.6633799995548531E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>3.0435654543524166E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-9.8215860844202432E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-0.14296520423600606</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-1.2531576224244454E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.1164962513773203E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.4859407147755849E-3</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-7.0595396614038422E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-2.9779691682972155E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>2.0496247136305528E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-5.8872898208593627E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>-7.473393968883732E-3</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>6.8466747117189595E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>1.0071663406716884</v>
       </c>
     </row>
@@ -6864,91 +6854,91 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="21" x14ac:dyDescent="0.25">
@@ -6956,91 +6946,91 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -7048,10 +7038,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1">
         <v>13000000</v>
@@ -7140,40 +7130,40 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1">
         <v>148725000</v>
@@ -7182,49 +7172,49 @@
         <v>102625000</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -7232,10 +7222,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1">
         <v>13000000</v>
@@ -7324,10 +7314,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1">
         <v>30000000</v>
@@ -7416,10 +7406,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1">
         <v>1500000</v>
@@ -7428,31 +7418,31 @@
         <v>300000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1">
         <v>5999000</v>
@@ -7508,10 +7498,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>12800000</v>
@@ -7600,10 +7590,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>57300000</v>
@@ -7692,10 +7682,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>26200000</v>
@@ -7784,40 +7774,40 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>102920100</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1">
         <v>112291000</v>
@@ -7876,10 +7866,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>74600000</v>
@@ -7968,10 +7958,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>74600000</v>
@@ -8060,91 +8050,91 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1">
         <v>21915000</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -8152,40 +8142,40 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>5137000</v>
@@ -8233,10 +8223,10 @@
         <v>213000</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -8244,13 +8234,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>-100000</v>
@@ -8259,19 +8249,19 @@
         <v>-100000</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1">
         <v>3739000</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L51" s="1">
         <v>6613400</v>
@@ -8289,7 +8279,7 @@
         <v>31770000</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R51" s="1">
         <v>18784000</v>
@@ -8336,10 +8326,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>100800000</v>
@@ -8428,91 +8418,91 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8520,10 +8510,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11">
         <v>158100000</v>
@@ -8612,10 +8602,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1">
         <v>10400000</v>
@@ -8704,10 +8694,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>800000</v>
@@ -8737,22 +8727,22 @@
         <v>7300</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1">
         <v>17502000</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1">
         <v>50370000</v>
@@ -8796,49 +8786,49 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1">
         <v>5269000</v>
@@ -8888,25 +8878,25 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1">
         <v>8863100</v>
@@ -8980,10 +8970,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>5500000</v>
@@ -9072,10 +9062,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>16700000</v>
@@ -9164,10 +9154,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>10500000</v>
@@ -9197,22 +9187,22 @@
         <v>8900</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S61" s="1">
         <v>325386000</v>
@@ -9256,91 +9246,91 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9348,10 +9338,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>600000</v>
@@ -9384,7 +9374,7 @@
         <v>2878000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>13998000</v>
@@ -9440,10 +9430,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>4100000</v>
@@ -9532,10 +9522,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>15200000</v>
@@ -9624,91 +9614,91 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9716,10 +9706,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10">
         <v>31900000</v>
@@ -9808,19 +9798,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1">
         <v>115000000</v>
@@ -9844,22 +9834,22 @@
         <v>272017000</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T68" s="1">
         <v>12000</v>
@@ -9900,10 +9890,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>19800000</v>
@@ -9992,10 +9982,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-7200000</v>
@@ -10084,10 +10074,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>113600000</v>
@@ -10114,10 +10104,10 @@
         <v>69624500</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N71" s="1">
         <v>276052000</v>
@@ -10176,10 +10166,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10">
         <v>126200000</v>
@@ -10268,10 +10258,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11">
         <v>158100000</v>
@@ -10360,91 +10350,91 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="21" x14ac:dyDescent="0.25">
@@ -10452,91 +10442,91 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10731,7 +10721,7 @@
         <v>-100000</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-300000</v>
@@ -10820,49 +10810,49 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1">
         <v>9413000</v>
@@ -10909,122 +10899,122 @@
     </row>
     <row r="80" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AD80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:AD80" si="42">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.2667511795468064E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>2.3231320814771781E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>2.1790870924028313E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>2.3578459431005065E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.8690043635904915E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.8993733503281939E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.584009479276734E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.6448434268937891E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.4392454044631801E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.2859868360935818E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.1481632571107032E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.0574074972467597E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.5198452299730623E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>1.1129928381702986E-2</v>
       </c>
     </row>
@@ -11125,49 +11115,49 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1">
         <v>982000</v>
@@ -11217,7 +11207,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-3200000</v>
@@ -11229,31 +11219,31 @@
         <v>1200000</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1">
         <v>1361000</v>
@@ -11303,71 +11293,71 @@
       <c r="AD83" s="1">
         <v>-10851000</v>
       </c>
-      <c r="AK83" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL83" s="69"/>
+      <c r="AK83" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL83" s="67"/>
     </row>
     <row r="84" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1">
         <v>14749000</v>
@@ -11399,20 +11389,20 @@
       <c r="AD84" s="1">
         <v>36306000</v>
       </c>
-      <c r="AK84" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL84" s="71"/>
+      <c r="AK84" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL84" s="68"/>
     </row>
     <row r="85" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>40600000</v>
@@ -11495,10 +11485,10 @@
       <c r="AD85" s="1">
         <v>-18201000</v>
       </c>
-      <c r="AK85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL85" s="24">
+      <c r="AK85" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL85" s="43">
         <f>AD17</f>
         <v>16688000</v>
       </c>
@@ -11594,10 +11584,10 @@
       <c r="AD86" s="1">
         <v>17453000</v>
       </c>
-      <c r="AK86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL86" s="24">
+      <c r="AK86" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL86" s="43">
         <f>AD56</f>
         <v>21794000</v>
       </c>
@@ -11693,10 +11683,10 @@
       <c r="AD87" s="10">
         <v>1176683000</v>
       </c>
-      <c r="AK87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL87" s="24">
+      <c r="AK87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL87" s="43">
         <f>AD61</f>
         <v>97679000</v>
       </c>
@@ -11792,138 +11782,138 @@
       <c r="AD88" s="1">
         <v>-337448000</v>
       </c>
-      <c r="AK88" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL88" s="32">
+      <c r="AK88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL88" s="45">
         <f>AL85/(AL86+AL87)</f>
         <v>0.13968009508424498</v>
       </c>
     </row>
     <row r="89" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AD89" si="43">(-1*B88)/B3</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.1703958691910499</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="43"/>
+        <v>7.2758037225042302E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="43"/>
+        <v>6.1757719714964368E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.10683012259194395</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.14598025387870239</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.19481136568016699</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.18091499684508294</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.27156083092804745</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.20355957908383179</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.16105787403726032</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.14494947616662035</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.22265126160913104</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.35111115074552329</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.14444070699039815</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.10619554773228257</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="43"/>
+        <v>9.8126614903497181E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="43"/>
+        <v>8.0447488437894815E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="43"/>
+        <v>6.2104045592307221E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.12449038882400949</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="43"/>
+        <v>7.0056528252523231E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="43"/>
+        <v>6.9064174459177771E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.13710996658123425</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.11890901883381066</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.1594455320527553</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.18310032973270249</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.2683970632707996</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="43"/>
+        <v>0.1719569576503123</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="43"/>
+        <v>9.6388350379800064E-2</v>
+      </c>
+      <c r="AK89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AD89" si="19">(-1*B88)/B3</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.1703958691910499</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="19"/>
-        <v>7.2758037225042302E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="19"/>
-        <v>6.1757719714964368E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.10683012259194395</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.14598025387870239</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.19481136568016699</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.18091499684508294</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.27156083092804745</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.20355957908383179</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.16105787403726032</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.14494947616662035</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.22265126160913104</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.35111115074552329</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.14444070699039815</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.10619554773228257</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="19"/>
-        <v>9.8126614903497181E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="19"/>
-        <v>8.0447488437894815E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="19"/>
-        <v>6.2104045592307221E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.12449038882400949</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="19"/>
-        <v>7.0056528252523231E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="19"/>
-        <v>6.9064174459177771E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.13710996658123425</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.11890901883381066</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.1594455320527553</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.18310032973270249</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.2683970632707996</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="19"/>
-        <v>0.1719569576503123</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="19"/>
-        <v>9.6388350379800064E-2</v>
-      </c>
-      <c r="AK89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL89" s="24">
+      <c r="AL89" s="43">
         <f>AD27</f>
         <v>250824000</v>
       </c>
@@ -11933,25 +11923,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-5099000</v>
@@ -11972,13 +11962,13 @@
         <v>-2325000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-38229000</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1">
         <v>-21362000</v>
@@ -11999,7 +11989,7 @@
         <v>-4500000</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1">
         <v>-164378000</v>
@@ -12019,10 +12009,10 @@
       <c r="AD90" s="1">
         <v>-109195000</v>
       </c>
-      <c r="AK90" s="23" t="s">
+      <c r="AK90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AL90" s="24">
+      <c r="AL90" s="43">
         <f>AD25</f>
         <v>1340954000</v>
       </c>
@@ -12032,37 +12022,37 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-13100000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1">
         <v>-755420000</v>
@@ -12077,51 +12067,51 @@
         <v>-154360000</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1">
         <v>-21119000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1">
         <v>-374866000</v>
       </c>
-      <c r="AK91" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL91" s="32">
+      <c r="AK91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL91" s="45">
         <f>AL89/AL90</f>
         <v>0.1870489218869551</v>
       </c>
@@ -12131,37 +12121,37 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>13100000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1">
         <v>928020000</v>
@@ -12176,51 +12166,51 @@
         <v>266131000</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1">
         <v>21498000</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1">
         <v>374866000</v>
       </c>
-      <c r="AK92" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL92" s="34">
+      <c r="AK92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL92" s="45">
         <f>AL88*(1-AL91)</f>
         <v>0.11355308388966957</v>
       </c>
@@ -12316,10 +12306,10 @@
       <c r="AD93" s="1">
         <v>4333000</v>
       </c>
-      <c r="AK93" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL93" s="71"/>
+      <c r="AK93" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL93" s="68"/>
     </row>
     <row r="94" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12412,11 +12402,12 @@
       <c r="AD94" s="10">
         <v>-442310000</v>
       </c>
-      <c r="AK94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL94" s="35">
-        <v>4.095E-2</v>
+      <c r="AK94" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL94" s="64">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12424,55 +12415,55 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1">
         <v>-17502000</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1">
         <v>-25000000</v>
@@ -12499,7 +12490,7 @@
         <v>-231000000</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB95" s="1">
         <v>-1065000</v>
@@ -12510,12 +12501,12 @@
       <c r="AD95" s="1">
         <v>-417289000</v>
       </c>
-      <c r="AK95" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL95" s="37" cm="1">
+      <c r="AK95" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL95" s="48" cm="1">
         <f t="array" ref="AL95">_FV(A1,"Beta")</f>
-        <v>1.2277</v>
+        <v>1.2188000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -12580,39 +12571,39 @@
         <v>1957000</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL96" s="35">
+        <v>91</v>
+      </c>
+      <c r="AK96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12621,31 +12612,31 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1">
         <v>-20447300</v>
@@ -12654,7 +12645,7 @@
         <v>-10723100</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-8873000</v>
@@ -12690,29 +12681,29 @@
         <v>-457894000</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1">
         <v>-364997000</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK97" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL97" s="34">
+        <v>91</v>
+      </c>
+      <c r="AK97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL97" s="45">
         <f>(AL94)+((AL95)*(AL96-AL94))</f>
-        <v>9.3802485000000005E-2</v>
+        <v>9.3522176000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12720,96 +12711,96 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK98" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL98" s="71"/>
+        <v>91</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK98" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL98" s="68"/>
     </row>
     <row r="99" spans="1:38" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12849,7 +12840,7 @@
         <v>-91200</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1">
         <v>2317000</v>
@@ -12902,10 +12893,10 @@
       <c r="AD99" s="1">
         <v>34596000</v>
       </c>
-      <c r="AK99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL99" s="24">
+      <c r="AK99" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL99" s="43">
         <f>AL86+AL87</f>
         <v>119473000</v>
       </c>
@@ -13001,12 +12992,12 @@
       <c r="AD100" s="10">
         <v>-382693000</v>
       </c>
-      <c r="AK100" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL100" s="32">
+      <c r="AK100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL100" s="45">
         <f>AL99/AL103</f>
-        <v>2.8163884851289305E-3</v>
+        <v>2.8320067657353469E-3</v>
       </c>
     </row>
     <row r="101" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13014,34 +13005,34 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1">
         <v>95200</v>
@@ -13100,12 +13091,12 @@
       <c r="AD101" s="1">
         <v>-15704000</v>
       </c>
-      <c r="AK101" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL101" s="38" cm="1">
+      <c r="AK101" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL101" s="49" cm="1">
         <f t="array" ref="AL101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42301166280</v>
+        <v>42067220000</v>
       </c>
     </row>
     <row r="102" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13199,12 +13190,12 @@
       <c r="AD102" s="10">
         <v>335976000</v>
       </c>
-      <c r="AK102" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL102" s="32">
+      <c r="AK102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL102" s="45">
         <f>AL101/AL103</f>
-        <v>0.99718361151487112</v>
+        <v>0.99716799323426464</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13298,12 +13289,12 @@
       <c r="AD103" s="1">
         <v>1048260000</v>
       </c>
-      <c r="AK103" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL103" s="39">
+      <c r="AK103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL103" s="50">
         <f>AL99+AL101</f>
-        <v>42420639280</v>
+        <v>42186693000</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13311,19 +13302,19 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11">
         <v>37000000</v>
@@ -13397,527 +13388,529 @@
       <c r="AD104" s="11">
         <v>1384236000</v>
       </c>
-      <c r="AK104" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL104" s="71"/>
+      <c r="AK104" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL104" s="68"/>
     </row>
     <row r="105" spans="1:38" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AC105" si="44">(B22*(1-$AL$91))+B77+B88+B81</f>
+        <v>2314394.5280747879</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="44"/>
+        <v>-2694947.925133897</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="44"/>
+        <v>5270529.190412201</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="44"/>
+        <v>19483480.268525243</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="44"/>
+        <v>13285645.443467859</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="44"/>
+        <v>16052566.0089757</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="44"/>
+        <v>-3840590.3837118968</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="44"/>
+        <v>23140332.473149717</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="44"/>
+        <v>9240413.4899481982</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="44"/>
+        <v>18263262.143071279</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="44"/>
+        <v>73533429.031420916</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="44"/>
+        <v>102037693.1617341</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="44"/>
+        <v>40504512.863230199</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="44"/>
+        <v>16512946.763274521</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="44"/>
+        <v>105168881.65142131</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="44"/>
+        <v>167190201.67582184</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="44"/>
+        <v>157831214.24448565</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="44"/>
+        <v>206969791.51260969</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="44"/>
+        <v>214667980.07090473</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="44"/>
+        <v>110557651.49736679</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="44"/>
+        <v>188202891.70993185</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="44"/>
+        <v>228069164.25321078</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="44"/>
+        <v>190041224.72060937</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="44"/>
+        <v>239484519.38246948</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="44"/>
+        <v>257968897.73996723</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="44"/>
+        <v>220000123.69104385</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="44"/>
+        <v>241892561.89697778</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="44"/>
+        <v>488128741.89569521</v>
+      </c>
+      <c r="AD105" s="1">
+        <f>(AD22*(1-$AL$91))+AD77+AD88+AD81</f>
+        <v>793475293.55220246</v>
+      </c>
+      <c r="AE105" s="27">
+        <f>AD105*(1+$AL$106)</f>
+        <v>865244628.73459065</v>
+      </c>
+      <c r="AF105" s="27">
+        <f t="shared" ref="AF105:AI105" si="45">AE105*(1+$AL$106)</f>
+        <v>943505454.59649694</v>
+      </c>
+      <c r="AG105" s="27">
+        <f t="shared" si="45"/>
+        <v>1028844922.3374577</v>
+      </c>
+      <c r="AH105" s="27">
+        <f t="shared" si="45"/>
+        <v>1121903290.6092319</v>
+      </c>
+      <c r="AI105" s="27">
+        <f t="shared" si="45"/>
+        <v>1223378729.0510478</v>
+      </c>
+      <c r="AJ105" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-3.0434782608695654</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-1.574468085106383</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>5.2222222222222223</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.42261904761904767</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>3.0927835051546282E-2</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AD105" si="20">(H106/G106)-1</f>
-        <v>-2.0827200000000001</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="20"/>
-        <v>-2.0128195655386434</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="20"/>
-        <v>-1.3598212657304396</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="20"/>
-        <v>-3.1183536925338333</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="20"/>
-        <v>5.0596152465723927</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.3767648109867936</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.65214460872183899</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="20"/>
-        <v>-1.6104629591458135</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="20"/>
-        <v>-6.4496893571042682</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.54186545062516256</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="20"/>
-        <v>-6.9116831555852132E-3</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.39812409462073206</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="20"/>
-        <v>1.2033896342945827E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.60500683478131556</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="20"/>
-        <v>1.62208771955228</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="20"/>
-        <v>2.6722405071679445E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.14706088004173767</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="20"/>
-        <v>1.0171395059937822</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="20"/>
-        <v>-0.22733837689133429</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.10359323350555716</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.19485780696062149</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.61974207840742768</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="20"/>
-        <v>0.58977637598386035</v>
-      </c>
-      <c r="AE105" s="59">
-        <v>828000000</v>
-      </c>
-      <c r="AF105" s="59">
-        <v>1093000000</v>
-      </c>
-      <c r="AG105" s="59">
-        <v>1404000000</v>
-      </c>
-      <c r="AH105" s="59">
-        <v>1511000000</v>
-      </c>
-      <c r="AI105" s="59">
-        <v>1585000000</v>
-      </c>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL105" s="26">
+      <c r="AL105" s="52">
         <f>(AL100*AL92)+(AL102*AL97)</f>
-        <v>9.3858110359287275E-2</v>
+        <v>9.3578903666667379E-2</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>2300000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-4700000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>2700000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>16800000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>9700000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-10827200</v>
-      </c>
-      <c r="I106" s="1">
-        <v>10966000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-3945800</v>
-      </c>
-      <c r="K106" s="1">
-        <v>8358600</v>
-      </c>
-      <c r="L106" s="1">
-        <v>50649900</v>
-      </c>
-      <c r="M106" s="1">
-        <v>69733000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>24257000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-14808000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>80699000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>124427000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>123567000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>172762000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>174841000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>69061000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>181084000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>185923000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>158581000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>319880000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>247159000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>272763000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>325913000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>527895000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>839235000</v>
-      </c>
-      <c r="AE106" s="40">
-        <f>AD106*(1+$AL$106)</f>
-        <v>910343293.32825589</v>
-      </c>
-      <c r="AF106" s="40">
-        <f t="shared" ref="AF106:AI106" si="21">AE106*(1+$AL$106)</f>
-        <v>987476584.87519574</v>
-      </c>
-      <c r="AG106" s="40">
-        <f t="shared" si="21"/>
-        <v>1071145372.1065311</v>
-      </c>
-      <c r="AH106" s="40">
-        <f t="shared" si="21"/>
-        <v>1161903406.8845789</v>
-      </c>
-      <c r="AI106" s="40">
-        <f t="shared" si="21"/>
-        <v>1260351360.4087391</v>
-      </c>
-      <c r="AJ106" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK106" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL106" s="43">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AD106" si="46">(C107/B107)-1</f>
+        <v>-3.0434782608695654</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="46"/>
+        <v>-1.574468085106383</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="46"/>
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="46"/>
+        <v>-0.42261904761904767</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="46"/>
+        <v>3.0927835051546282E-2</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="46"/>
+        <v>-2.0827200000000001</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="46"/>
+        <v>-2.0128195655386434</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="46"/>
+        <v>-1.3598212657304396</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="46"/>
+        <v>-3.1183536925338333</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="46"/>
+        <v>5.0596152465723927</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.3767648109867936</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="46"/>
+        <v>-0.65214460872183899</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="46"/>
+        <v>-1.6104629591458135</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="46"/>
+        <v>-6.4496893571042682</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.54186545062516256</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="46"/>
+        <v>-6.9116831555852132E-3</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.39812409462073206</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="46"/>
+        <v>1.2033896342945827E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="46"/>
+        <v>-0.60500683478131556</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="46"/>
+        <v>1.62208771955228</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="46"/>
+        <v>2.6722405071679445E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="46"/>
+        <v>-0.14706088004173767</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="46"/>
+        <v>1.0171395059937822</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="46"/>
+        <v>-0.22733837689133429</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.10359323350555716</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.19485780696062149</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.61974207840742768</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="46"/>
+        <v>0.58977637598386035</v>
+      </c>
+      <c r="AE106" s="30">
+        <v>839300000</v>
+      </c>
+      <c r="AF106" s="30">
+        <v>914300000</v>
+      </c>
+      <c r="AG106" s="30">
+        <v>1033000000</v>
+      </c>
+      <c r="AH106" s="30">
+        <v>1056000000</v>
+      </c>
+      <c r="AI106" s="30">
+        <v>1192000000</v>
+      </c>
+      <c r="AJ106" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK106" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL106" s="54">
         <f>(SUM(AE4:AI4)/5)</f>
-        <v>8.4729894878378426E-2</v>
+        <v>9.0449363408775824E-2</v>
       </c>
     </row>
     <row r="107" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" s="58">
-        <f t="shared" ref="B107:AC107" si="22">B106/B3</f>
-        <v>0.10087719298245613</v>
-      </c>
-      <c r="C107" s="58">
-        <f t="shared" si="22"/>
-        <v>-8.0895008605851984E-2</v>
-      </c>
-      <c r="D107" s="58">
-        <f t="shared" si="22"/>
-        <v>2.2842639593908629E-2</v>
-      </c>
-      <c r="E107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.1330166270783848</v>
-      </c>
-      <c r="F107" s="58">
-        <f t="shared" si="22"/>
-        <v>8.493870402802102E-2</v>
-      </c>
-      <c r="G107" s="58">
-        <f t="shared" si="22"/>
-        <v>7.0521861777150918E-2</v>
-      </c>
-      <c r="H107" s="58">
-        <f t="shared" si="22"/>
-        <v>-5.6972579262616799E-2</v>
-      </c>
-      <c r="I107" s="58">
-        <f t="shared" si="22"/>
-        <v>4.3192035587149367E-2</v>
-      </c>
-      <c r="J107" s="58">
-        <f t="shared" si="22"/>
-        <v>-1.2468723910258557E-2</v>
-      </c>
-      <c r="K107" s="58">
-        <f t="shared" si="22"/>
-        <v>2.405884928204256E-2</v>
-      </c>
-      <c r="L107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.12637317260663333</v>
-      </c>
-      <c r="M107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.15255156843742548</v>
-      </c>
-      <c r="N107" s="58">
-        <f t="shared" si="22"/>
-        <v>4.5891658831074725E-2</v>
-      </c>
-      <c r="O107" s="58">
-        <f t="shared" si="22"/>
-        <v>-2.6410786901619462E-2</v>
-      </c>
-      <c r="P107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.10282118320999735</v>
-      </c>
-      <c r="Q107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.16744719963611016</v>
-      </c>
-      <c r="R107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.15987884261313867</v>
-      </c>
-      <c r="S107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.19806568330493921</v>
-      </c>
-      <c r="T107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.18918275551265917</v>
-      </c>
-      <c r="U107" s="58">
-        <f t="shared" si="22"/>
-        <v>6.5999545100947452E-2</v>
-      </c>
-      <c r="V107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.15563877269144788</v>
-      </c>
-      <c r="W107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.16222529162474839</v>
-      </c>
-      <c r="X107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.12501961056376726</v>
-      </c>
-      <c r="Y107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.22091450094994342</v>
-      </c>
-      <c r="Z107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.13687749038458877</v>
-      </c>
-      <c r="AA107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.13357920857295233</v>
-      </c>
-      <c r="AB107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.14776727967163331</v>
-      </c>
-      <c r="AC107" s="58">
-        <f t="shared" si="22"/>
-        <v>0.19606048034715551</v>
-      </c>
-      <c r="AD107" s="58">
-        <f>AD106/AD3</f>
-        <v>0.23971834840032094</v>
-      </c>
-      <c r="AE107" s="41"/>
-      <c r="AF107" s="41"/>
-      <c r="AG107" s="41"/>
-      <c r="AH107" s="41"/>
-      <c r="AI107" s="60">
-        <f>AI105*(1+AL107)/(AL108-AL107)</f>
-        <v>23593807490.839424</v>
-      </c>
-      <c r="AJ107" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK107" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL107" s="47">
+      <c r="A107" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-4700000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>16800000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>9700000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-10827200</v>
+      </c>
+      <c r="I107" s="1">
+        <v>10966000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-3945800</v>
+      </c>
+      <c r="K107" s="1">
+        <v>8358600</v>
+      </c>
+      <c r="L107" s="1">
+        <v>50649900</v>
+      </c>
+      <c r="M107" s="1">
+        <v>69733000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>24257000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-14808000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>80699000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>124427000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>123567000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>172762000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>174841000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>69061000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>181084000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>185923000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>158581000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>319880000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>247159000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>272763000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>325913000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>527895000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>839235000</v>
+      </c>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="31">
+        <f>AI106*(1+AL107)/(AL108-AL107)</f>
+        <v>17815974515.116856</v>
+      </c>
+      <c r="AJ107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK107" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE108" s="44">
-        <f t="shared" ref="AE108:AG108" si="23">AE107+AE106</f>
-        <v>910343293.32825589</v>
-      </c>
-      <c r="AF108" s="44">
-        <f t="shared" si="23"/>
-        <v>987476584.87519574</v>
-      </c>
-      <c r="AG108" s="44">
-        <f t="shared" si="23"/>
-        <v>1071145372.1065311</v>
-      </c>
-      <c r="AH108" s="44">
-        <f>AH107+AH106</f>
-        <v>1161903406.8845789</v>
-      </c>
-      <c r="AI108" s="60">
-        <f>AI107+AI105</f>
-        <v>25178807490.839424</v>
-      </c>
-      <c r="AJ108" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK108" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL108" s="49">
+      <c r="AE108" s="31">
+        <f t="shared" ref="AE108:AH108" si="47">AE107+AE106</f>
+        <v>839300000</v>
+      </c>
+      <c r="AF108" s="31">
+        <f t="shared" si="47"/>
+        <v>914300000</v>
+      </c>
+      <c r="AG108" s="31">
+        <f t="shared" si="47"/>
+        <v>1033000000</v>
+      </c>
+      <c r="AH108" s="31">
+        <f t="shared" si="47"/>
+        <v>1056000000</v>
+      </c>
+      <c r="AI108" s="31">
+        <f>AI107+AI106</f>
+        <v>19007974515.116856</v>
+      </c>
+      <c r="AJ108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK108" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL108" s="54">
         <f>AL105</f>
-        <v>9.3858110359287275E-2</v>
+        <v>9.3578903666667379E-2</v>
       </c>
     </row>
     <row r="109" spans="1:38" ht="19" x14ac:dyDescent="0.25">
-      <c r="AE109" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF109" s="67"/>
+      <c r="AE109" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF109" s="65"/>
     </row>
     <row r="110" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE110" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF110" s="38">
+      <c r="AE110" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF110" s="49">
         <f>NPV(AL108,AE108,AF108,AG108,AH108,AI108)</f>
-        <v>19365420580.70892</v>
+        <v>15213259298.411501</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE111" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF111" s="38">
+      <c r="AE111" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF111" s="49">
         <f>AD40</f>
         <v>1384236000</v>
       </c>
     </row>
     <row r="112" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE112" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF112" s="38">
+      <c r="AE112" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF112" s="49">
         <f>AL99</f>
         <v>119473000</v>
       </c>
     </row>
     <row r="113" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE113" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF113" s="38">
+      <c r="AE113" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF113" s="49">
         <f>AF110+AF111-AF112</f>
-        <v>20630183580.70892</v>
+        <v>16478022298.411501</v>
       </c>
     </row>
     <row r="114" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF114" s="51" cm="1">
-        <f t="array" ref="AF114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>477439800</v>
+      <c r="AE114" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF114" s="58">
+        <f>AD34*(1+(AJ16*5))</f>
+        <v>474682856.52190441</v>
       </c>
     </row>
     <row r="115" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE115" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF115" s="53">
+      <c r="AE115" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF115" s="60">
         <f>AF113/AF114</f>
-        <v>43.210020573711951</v>
+        <v>34.713750606350615</v>
       </c>
     </row>
     <row r="116" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE116" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF116" s="54" cm="1">
+      <c r="AE116" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF116" s="61" cm="1">
         <f t="array" ref="AF116">_FV(A1,"Price")</f>
-        <v>88.6</v>
+        <v>88.11</v>
       </c>
     </row>
     <row r="117" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE117" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF117" s="56">
+      <c r="AE117" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF117" s="62">
         <f>AF115/AF116-1</f>
-        <v>-0.51230225086103887</v>
+        <v>-0.6060180387430415</v>
       </c>
     </row>
     <row r="118" spans="31:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="AE118" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF118" s="57" t="str">
+      <c r="AE118" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF118" s="63" t="str">
         <f>IF(AF115&gt;AF116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -13992,8 +13985,9 @@
     <hyperlink ref="AD36" r:id="rId58" tooltip="https://www.sec.gov/Archives/edgar/data/900075/000090007522000050/0000900075-22-000050-index.htm" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="AD74" r:id="rId59" tooltip="https://www.sec.gov/Archives/edgar/data/900075/000090007522000050/0000900075-22-000050-index.htm" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="AE1" r:id="rId60" display="https://finbox.com/NASDAQGS:CPRT/explorer/revenue_proj/" xr:uid="{7558D92A-5FEF-A242-B833-8F3887DD9202}"/>
+    <hyperlink ref="AJ106" r:id="rId61" xr:uid="{A8584D7A-5B55-0E4B-B313-6E4E446219B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId61"/>
+  <drawing r:id="rId62"/>
 </worksheet>
 </file>
--- a/Industrials/Copart.xlsx
+++ b/Industrials/Copart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F7071-9DD8-7243-927B-E6D2A08BD581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EA17EE-566A-564A-83C8-721C35545982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2774,24 +2774,19 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
-      <sheetName val="ROIC"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2800,14 +2795,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2816,17 +2811,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="8">
-          <cell r="C8">
-            <v>4.7160000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2953,10 +2937,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>47.384999999999998</v>
-    <v>26.877500000000001</v>
-    <v>1.1921999999999999</v>
-    <v>-0.9</v>
-    <v>-1.9897999999999999E-2</v>
+    <v>27.68</v>
+    <v>1.1858</v>
+    <v>-0.42</v>
+    <v>-9.7330000000000003E-3</v>
+    <v>0.25</v>
+    <v>5.8509999999999994E-3</v>
     <v>USD</v>
     <v>Copart, Inc. is a provider of online auctions and vehicle remarketing services. The Company offers services to process and sell vehicles to dealers, dismantlers, rebuilders, exporters and to the general public. It sells vehicles on behalf of insurance companies, banks, finance companies, charities, fleet operators, dealers, vehicle rental companies, and individuals. It has approximately 250,000 vehicles available online every day with operations at over 200 locations in 11 countries, including the United States, Canada, the United Kingdom, Brazil, the Republic of Ireland, Germany, Finland, the United Arab Emirates, Oman, Bahrain and Spain. It provides vehicle sellers with a full range of services to process and sell vehicles primarily over the internet through its Virtual Bidding Third Generation internet auction-style sales technology, VB3. Vehicle sellers consist primarily of insurance companies, but also include banks, finance companies, charities, fleet operators and others.</v>
     <v>10200</v>
@@ -2964,24 +2950,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14185 Dallas Pkwy Ste 300, DALLAS, TX, 75254 US</v>
-    <v>45.505000000000003</v>
+    <v>43.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999275416405</v>
+    <v>45226.988504524998</v>
     <v>0</v>
-    <v>44.08</v>
-    <v>42439578181</v>
+    <v>42.46</v>
+    <v>40907800000</v>
     <v>COPART, INC.</v>
     <v>COPART, INC.</v>
-    <v>45.24</v>
-    <v>46.3003</v>
-    <v>45.23</v>
-    <v>44.33</v>
+    <v>43.3</v>
+    <v>44.629199999999997</v>
+    <v>43.15</v>
+    <v>42.73</v>
+    <v>42.98</v>
     <v>957355700</v>
     <v>CPRT</v>
     <v>COPART, INC. (XNAS:CPRT)</v>
-    <v>26</v>
-    <v>3938691</v>
+    <v>3683775</v>
+    <v>3436163</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -3013,6 +3000,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3033,6 +3022,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3049,7 +3039,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3060,13 +3050,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3132,13 +3125,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3183,6 +3182,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3190,6 +3192,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3551,10 +3556,10 @@
   <dimension ref="A1:AM120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF32" sqref="AF32"/>
+      <selection pane="bottomRight" activeCell="AD122" sqref="AD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5310,15 +5315,15 @@
       </c>
       <c r="AK16" s="32">
         <f>AL103/AD3</f>
-        <v>12.122403842017572</v>
+        <v>11.684868067574218</v>
       </c>
       <c r="AL16" s="32">
         <f>AL103/AD28</f>
-        <v>38.930749709667651</v>
+        <v>37.525616210910627</v>
       </c>
       <c r="AM16" s="33">
         <f>AL103/AD108</f>
-        <v>50.569361598360409</v>
+        <v>48.74415390206557</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5629,15 +5634,15 @@
       </c>
       <c r="AK19" s="32">
         <f>AL103/AE3</f>
-        <v>10.966299271576228</v>
+        <v>10.570490956072351</v>
       </c>
       <c r="AL19" s="32">
         <f>AL103/AE28</f>
-        <v>35.395811660550457</v>
+        <v>34.118265221017516</v>
       </c>
       <c r="AM19" s="33">
         <f>AL103/AE108</f>
-        <v>50.445237348151672</v>
+        <v>48.624509687388567</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6000,7 +6005,7 @@
       </c>
       <c r="AM22" s="34">
         <f>AE108/AL103</f>
-        <v>1.9823476953798897E-2</v>
+        <v>2.0565760075095703E-2</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13164,7 +13169,7 @@
       </c>
       <c r="AL96" s="55">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="97" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13269,7 +13274,7 @@
       </c>
       <c r="AL97" s="56" cm="1">
         <f t="array" ref="AL97">_FV(A1,"Beta")</f>
-        <v>1.1921999999999999</v>
+        <v>1.1858</v>
       </c>
     </row>
     <row r="98" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13478,7 +13483,7 @@
       </c>
       <c r="AL99" s="54">
         <f>(AL96)+((AL97)*(AL98-AL96))</f>
-        <v>9.0723155999999999E-2</v>
+        <v>9.0605190000000002E-2</v>
       </c>
     </row>
     <row r="100" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13790,7 +13795,7 @@
       </c>
       <c r="AL102" s="54">
         <f>AL101/AL105</f>
-        <v>2.8072289368456915E-3</v>
+        <v>2.9120385359270649E-3</v>
       </c>
     </row>
     <row r="103" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -13895,7 +13900,7 @@
       </c>
       <c r="AL103" s="58" cm="1">
         <f t="array" ref="AL103">_FV(A1,"Market cap",TRUE)</f>
-        <v>42439578181</v>
+        <v>40907800000</v>
       </c>
     </row>
     <row r="104" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -14000,7 +14005,7 @@
       </c>
       <c r="AL104" s="54">
         <f>AL103/AL105</f>
-        <v>0.99719277106315429</v>
+        <v>0.99708796146407297</v>
       </c>
     </row>
     <row r="105" spans="1:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14107,7 +14112,7 @@
       </c>
       <c r="AL105" s="59">
         <f>AL101+AL103</f>
-        <v>42559051181</v>
+        <v>41027273000</v>
       </c>
     </row>
     <row r="106" spans="1:38" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -14404,7 +14409,7 @@
       </c>
       <c r="AL107" s="60">
         <f>(AL102*AL94)+(AL104*AL99)</f>
-        <v>9.0787244834197978E-2</v>
+        <v>9.0672015151325086E-2</v>
       </c>
     </row>
     <row r="108" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -14531,7 +14536,7 @@
       <c r="AH109" s="63"/>
       <c r="AI109" s="64">
         <f>AI108*(1+AL109)/(AL110-AL109)</f>
-        <v>23370791767.840775</v>
+        <v>23411798716.046814</v>
       </c>
       <c r="AJ109" s="65" t="s">
         <v>146</v>
@@ -14562,7 +14567,7 @@
       </c>
       <c r="AI110" s="64">
         <f>AI109+AI108</f>
-        <v>24870791767.840775</v>
+        <v>24911798716.046814</v>
       </c>
       <c r="AJ110" s="65" t="s">
         <v>143</v>
@@ -14572,7 +14577,7 @@
       </c>
       <c r="AL110" s="40">
         <f>AL107</f>
-        <v>9.0787244834197978E-2</v>
+        <v>9.0672015151325086E-2</v>
       </c>
     </row>
     <row r="111" spans="1:38" ht="19" x14ac:dyDescent="0.2">
@@ -14593,7 +14598,7 @@
       </c>
       <c r="AF112" s="58">
         <f>NPV(AL110,AE110,AF110,AG110,AH110,AI110)</f>
-        <v>19437294628.567024</v>
+        <v>19473282597.871628</v>
       </c>
       <c r="AG112" s="52"/>
       <c r="AH112" s="52"/>
@@ -14638,7 +14643,7 @@
       </c>
       <c r="AF115" s="58">
         <f>AF112+AF113-AF114</f>
-        <v>20702057628.567024</v>
+        <v>20738045597.871628</v>
       </c>
       <c r="AG115" s="52"/>
       <c r="AH115" s="52"/>
@@ -14668,7 +14673,7 @@
       </c>
       <c r="AF117" s="70">
         <f>AF115/AF116</f>
-        <v>43.612397928703629</v>
+        <v>43.68821269388873</v>
       </c>
       <c r="AG117" s="52"/>
       <c r="AH117" s="52"/>
@@ -14683,7 +14688,7 @@
       </c>
       <c r="AF118" s="71" cm="1">
         <f t="array" ref="AF118">_FV(A1,"Price")</f>
-        <v>44.33</v>
+        <v>42.73</v>
       </c>
       <c r="AG118" s="52"/>
       <c r="AH118" s="52"/>
@@ -14698,7 +14703,7 @@
       </c>
       <c r="AF119" s="72">
         <f>AF117/AF118-1</f>
-        <v>-1.6187730008941359E-2</v>
+        <v>2.2424823166129926E-2</v>
       </c>
       <c r="AG119" s="52"/>
       <c r="AH119" s="52"/>
@@ -14713,7 +14718,7 @@
       </c>
       <c r="AF120" s="73" t="str">
         <f>IF(AF117&gt;AF118,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
       <c r="AG120" s="52"/>
       <c r="AH120" s="52"/>
